--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-04T08:35:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-04T08:32:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:44:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:45:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-04T09:44:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-04T09:45:00.000Z</t>
+          <t>2024-07-06T13:12:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU121"/>
+  <dimension ref="A1:AU124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
+          <t>8ea311fb-b86c-4d56-ad05-7fed94812a32</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-03T13:26:00.000Z</t>
+          <t>2024-07-07T14:57:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-d54f1efaa86342d59189765fd4983cec</t>
+          <t>https://www.notion.so/1-8ea311fbb86c4d56ad057fed94812a32</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
+          <t>1060fd8d-47b8-4f3a-8ec7-b5bfd89ec67e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-03T13:20:00.000Z</t>
+          <t>2024-07-06T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-52f1c71cfb9a4a52b420d5ba78d84357</t>
+          <t>https://www.notion.so/2-1060fd8d47b84f3a8ec7b5bfd89ec67e</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
+          <t>3185c0ad-0c6d-45f3-9ab0-17634502cc55</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-01T04:19:00.000Z</t>
+          <t>2024-07-06T15:49:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-7791c7c10d0e45e88da4065604bcd21f</t>
+          <t>https://www.notion.so/3-3185c0ad0c6d45f39ab017634502cc55</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
+          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-06-30T15:24:00.000Z</t>
+          <t>2024-07-03T13:26:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-00222ff8cefb4ae891583d12bac0731a</t>
+          <t>https://www.notion.so/4-d54f1efaa86342d59189765fd4983cec</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
+          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-30T15:24:00.000Z</t>
+          <t>2024-07-03T13:20:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-6187aa4668a24a2d80454548c4b66af9</t>
+          <t>https://www.notion.so/5-52f1c71cfb9a4a52b420d5ba78d84357</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
+          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-30T15:24:00.000Z</t>
+          <t>2024-07-01T04:19:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-464a57eaba654c019124e01717e3f099</t>
+          <t>https://www.notion.so/6-7791c7c10d0e45e88da4065604bcd21f</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
+          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-94d7f7501494430b8178f828dd9b7995</t>
+          <t>https://www.notion.so/7-00222ff8cefb4ae891583d12bac0731a</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
+          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-594b617c1c124b59a1613b855ace2697</t>
+          <t>https://www.notion.so/8-6187aa4668a24a2d80454548c4b66af9</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
+          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-2f77972521844679954fd9057ac30b88</t>
+          <t>https://www.notion.so/9-464a57eaba654c019124e01717e3f099</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
+          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-30T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-d2550ac2132f49ffae25eaca9136f3e4</t>
+          <t>https://www.notion.so/10-94d7f7501494430b8178f828dd9b7995</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
+          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-26T01:42:00.000Z</t>
+          <t>2024-06-30T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-004ae2770f964f1cacb013a1cf8d7cc0</t>
+          <t>https://www.notion.so/11-594b617c1c124b59a1613b855ace2697</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
+          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-06-26T01:41:00.000Z</t>
+          <t>2024-06-30T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-3c276d557b72423e8f845129c576bb8c</t>
+          <t>https://www.notion.so/12-2f77972521844679954fd9057ac30b88</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
+          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-26T01:41:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-6b50a32b5db44167be338a430747a091</t>
+          <t>https://www.notion.so/13-d2550ac2132f49ffae25eaca9136f3e4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
+          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-06-26T01:41:00.000Z</t>
+          <t>2024-06-26T01:42:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-39facd95bd4d442690e78a4d9968d5e3</t>
+          <t>https://www.notion.so/14-004ae2770f964f1cacb013a1cf8d7cc0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
+          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-584ac37286fe4fcb85b97b563f2d0fbd</t>
+          <t>https://www.notion.so/15-3c276d557b72423e8f845129c576bb8c</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
+          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-25T15:46:00.000Z</t>
+          <t>2024-06-26T01:41:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-9e960e7960a746dd926080dea0b94e8e</t>
+          <t>https://www.notion.so/16-6b50a32b5db44167be338a430747a091</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
+          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-25T15:46:00.000Z</t>
+          <t>2024-06-26T01:41:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
+          <t>https://www.notion.so/17-39facd95bd4d442690e78a4d9968d5e3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
+          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-25T15:46:00.000Z</t>
+          <t>2024-06-26T01:41:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-f73d7cb725374af897a202fc4ab15d9e</t>
+          <t>https://www.notion.so/18-584ac37286fe4fcb85b97b563f2d0fbd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
+          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-96b2ae74933b4a59b4318f36dd90de80</t>
+          <t>https://www.notion.so/19-9e960e7960a746dd926080dea0b94e8e</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
+          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-8ddf806c8a8b4528b2182039b0175052</t>
+          <t>https://www.notion.so/20-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
+          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-2990b1efc2ec4fc0a44db8bac4db74b9</t>
+          <t>https://www.notion.so/21-f73d7cb725374af897a202fc4ab15d9e</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
+          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-7f37cb5c582142eaa19b8910fba84fb5</t>
+          <t>https://www.notion.so/22-96b2ae74933b4a59b4318f36dd90de80</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
+          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-0b7379bcf3524302a3e88df0ea8dc0d5</t>
+          <t>https://www.notion.so/23-8ddf806c8a8b4528b2182039b0175052</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
+          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-b379d1e4550e4cb2af0cb6810ff97bb8</t>
+          <t>https://www.notion.so/24-2990b1efc2ec4fc0a44db8bac4db74b9</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
+          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-3646bf897b7c46b08c143ac95984359e</t>
+          <t>https://www.notion.so/25-7f37cb5c582142eaa19b8910fba84fb5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
+          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-b10005d8518d4eddbc598449a5129fd8</t>
+          <t>https://www.notion.so/26-0b7379bcf3524302a3e88df0ea8dc0d5</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
+          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-f06f8dd5e07d4056914b088f2bf058fa</t>
+          <t>https://www.notion.so/27-b379d1e4550e4cb2af0cb6810ff97bb8</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
+          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-380732e8c5bd46b8bff19fbd6f6c42f4</t>
+          <t>https://www.notion.so/28-3646bf897b7c46b08c143ac95984359e</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
+          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-e33e5d8980004fdf81c118a3d5babcb5</t>
+          <t>https://www.notion.so/29-b10005d8518d4eddbc598449a5129fd8</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
+          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-a43add4ce37b465ca76a0282423a6997</t>
+          <t>https://www.notion.so/30-f06f8dd5e07d4056914b088f2bf058fa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
+          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-0f6131e3cc674a488b6dde4ef7d1b40f</t>
+          <t>https://www.notion.so/31-380732e8c5bd46b8bff19fbd6f6c42f4</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
+          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-80e96903d54f4d06ad2fa980d77dccb2</t>
+          <t>https://www.notion.so/32-e33e5d8980004fdf81c118a3d5babcb5</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
+          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-ec05a2eeb7a64a55bb1fa891a55add0a</t>
+          <t>https://www.notion.so/33-a43add4ce37b465ca76a0282423a6997</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
+          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-c3840748002648d185e6db7edb3c0504</t>
+          <t>https://www.notion.so/34-0f6131e3cc674a488b6dde4ef7d1b40f</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
+          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
+          <t>https://www.notion.so/35-80e96903d54f4d06ad2fa980d77dccb2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
+          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-f935ce96d7be4cac881bb804231d5eea</t>
+          <t>https://www.notion.so/36-ec05a2eeb7a64a55bb1fa891a55add0a</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>af426fdc-06e6-4499-90da-573a73641241</t>
+          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-af426fdc06e6449990da573a73641241</t>
+          <t>https://www.notion.so/37-c3840748002648d185e6db7edb3c0504</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
+          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-84b1b189fbd54f8fb3f7593faaa1042b</t>
+          <t>https://www.notion.so/38-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
+          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-2c707af5923c434498d5e3bb47c7e443</t>
+          <t>https://www.notion.so/39-f935ce96d7be4cac881bb804231d5eea</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
+          <t>af426fdc-06e6-4499-90da-573a73641241</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-801e99d37aef4e90b8199626450680b6</t>
+          <t>https://www.notion.so/40-af426fdc06e6449990da573a73641241</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
+          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-589c8f49bcb14fe9928001f50e7f65e9</t>
+          <t>https://www.notion.so/41-84b1b189fbd54f8fb3f7593faaa1042b</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0952e540-9579-4e94-896c-937858a124d1</t>
+          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-0952e54095794e94896c937858a124d1</t>
+          <t>https://www.notion.so/42-2c707af5923c434498d5e3bb47c7e443</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
+          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-f5529a3cc2cd4cc39daffaee511ed521</t>
+          <t>https://www.notion.so/43-801e99d37aef4e90b8199626450680b6</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
+          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
+          <t>https://www.notion.so/44-589c8f49bcb14fe9928001f50e7f65e9</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
+          <t>0952e540-9579-4e94-896c-937858a124d1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-1aa2fc39ea3541ca8f39b083de502a63</t>
+          <t>https://www.notion.so/45-0952e54095794e94896c937858a124d1</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
+          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-cb6000f42feb4a9881444628f0f82d9e</t>
+          <t>https://www.notion.so/46-f5529a3cc2cd4cc39daffaee511ed521</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
+          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-e541355e46b04e13add81a769ba877c5</t>
+          <t>https://www.notion.so/47-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,17 +10031,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
+          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2024-06-25T15:45:00.000Z</t>
+          <t>2024-06-25T15:46:00.000Z</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-c515f008b17f48c5878e502c037a0818</t>
+          <t>https://www.notion.so/48-1aa2fc39ea3541ca8f39b083de502a63</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,17 +10230,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
+          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2024-06-25T15:45:00.000Z</t>
+          <t>2024-06-25T15:46:00.000Z</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-434e47e8b704495ba187ae5b8a77bd8d</t>
+          <t>https://www.notion.so/49-cb6000f42feb4a9881444628f0f82d9e</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,17 +10429,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
+          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2024-06-25T15:45:00.000Z</t>
+          <t>2024-06-25T15:46:00.000Z</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-d6e376021487486ebeb86c14b5f3edca</t>
+          <t>https://www.notion.so/50-e541355e46b04e13add81a769ba877c5</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
+          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-7e00ea897a0f4e22a8dc2776c56702cd</t>
+          <t>https://www.notion.so/51-c515f008b17f48c5878e502c037a0818</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
+          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-7f0916e40d044a1dae32ef60f001f862</t>
+          <t>https://www.notion.so/52-434e47e8b704495ba187ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
+          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-168276c3ef554ff99b8eea4af91d3dbe</t>
+          <t>https://www.notion.so/53-d6e376021487486ebeb86c14b5f3edca</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
+          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-d13bcc52f0364a4f82a22a6e310eee1e</t>
+          <t>https://www.notion.so/54-7e00ea897a0f4e22a8dc2776c56702cd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
+          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-109069f60fa04a94a90595a32e8bf30d</t>
+          <t>https://www.notion.so/55-7f0916e40d044a1dae32ef60f001f862</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
+          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-7cafd8bf39124c28aebb2c01fe4a14d9</t>
+          <t>https://www.notion.so/56-168276c3ef554ff99b8eea4af91d3dbe</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
+          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-c5aa38aab7c84ffa89ee93c581d320cb</t>
+          <t>https://www.notion.so/57-d13bcc52f0364a4f82a22a6e310eee1e</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
+          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-6daa2647cb00496eb719cd733569f662</t>
+          <t>https://www.notion.so/58-109069f60fa04a94a90595a32e8bf30d</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
+          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-fc89e627ac814d738eb76c98511632f3</t>
+          <t>https://www.notion.so/59-7cafd8bf39124c28aebb2c01fe4a14d9</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
+          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-111ad33740f34b5586b831259b1570fe</t>
+          <t>https://www.notion.so/60-c5aa38aab7c84ffa89ee93c581d320cb</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
+          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-5c0f41ae978e4faba3e48af8d19c6f73</t>
+          <t>https://www.notion.so/61-6daa2647cb00496eb719cd733569f662</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
+          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-856a3cd5f46a40189149626d50d539ae</t>
+          <t>https://www.notion.so/62-fc89e627ac814d738eb76c98511632f3</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
+          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-3ef7f7a771444602b6ffafe3149c76f3</t>
+          <t>https://www.notion.so/63-111ad33740f34b5586b831259b1570fe</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
+          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-e8285e8ebcad4bf79bda2bc436cc7c77</t>
+          <t>https://www.notion.so/64-5c0f41ae978e4faba3e48af8d19c6f73</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
+          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-3d9b798de8d747daafb7e456bc579964</t>
+          <t>https://www.notion.so/65-856a3cd5f46a40189149626d50d539ae</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>39475552-6400-483e-a749-c503f5bacb66</t>
+          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-394755526400483ea749c503f5bacb66</t>
+          <t>https://www.notion.so/66-3ef7f7a771444602b6ffafe3149c76f3</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
+          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-4fcf70d6d25a43d6bf818042b1523735</t>
+          <t>https://www.notion.so/67-e8285e8ebcad4bf79bda2bc436cc7c77</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
+          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-1744c014cf66471c8b3e38faec3a07e9</t>
+          <t>https://www.notion.so/68-3d9b798de8d747daafb7e456bc579964</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
+          <t>39475552-6400-483e-a749-c503f5bacb66</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-300d58e186d24cf3a1a0bf0d53b82bcf</t>
+          <t>https://www.notion.so/69-394755526400483ea749c503f5bacb66</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
+          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-99c24a5a826f4151a69f885ecdd28821</t>
+          <t>https://www.notion.so/70-4fcf70d6d25a43d6bf818042b1523735</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
+          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-9b80c98af74d4a5a85c19876e46b346c</t>
+          <t>https://www.notion.so/71-1744c014cf66471c8b3e38faec3a07e9</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,17 +14807,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
+          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024-06-25T15:44:00.000Z</t>
+          <t>2024-06-25T15:45:00.000Z</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-68fe2bc221c048cbae811d7f6dcc7932</t>
+          <t>https://www.notion.so/72-300d58e186d24cf3a1a0bf0d53b82bcf</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,17 +15006,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
+          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2024-06-25T15:44:00.000Z</t>
+          <t>2024-06-25T15:45:00.000Z</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-94cda43831924b5fa31cc84e0ff157cd</t>
+          <t>https://www.notion.so/73-99c24a5a826f4151a69f885ecdd28821</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,17 +15205,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
+          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-06-25T15:44:00.000Z</t>
+          <t>2024-06-25T15:45:00.000Z</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-ca53893dbfb74584851639aef063440b</t>
+          <t>https://www.notion.so/74-9b80c98af74d4a5a85c19876e46b346c</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
+          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-3a5429312b6e40c6b1ba6c4531fbffa4</t>
+          <t>https://www.notion.so/75-68fe2bc221c048cbae811d7f6dcc7932</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
+          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-4d69d396cf6e42efb9724b7ca1bb1cec</t>
+          <t>https://www.notion.so/76-94cda43831924b5fa31cc84e0ff157cd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
+          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-6b989ee49b144c20a49965208ae18ba5</t>
+          <t>https://www.notion.so/77-ca53893dbfb74584851639aef063440b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
+          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-7eb7a2aaf1bb44218aa4518ecfff625e</t>
+          <t>https://www.notion.so/78-3a5429312b6e40c6b1ba6c4531fbffa4</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
+          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-2d371737ff994b659a22cbd894b2ac1f</t>
+          <t>https://www.notion.so/79-4d69d396cf6e42efb9724b7ca1bb1cec</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
+          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-c5384494b98f4e9fb0163548157c2178</t>
+          <t>https://www.notion.so/80-6b989ee49b144c20a49965208ae18ba5</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
+          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-12c869d92f554bff84092cfc8fc5d429</t>
+          <t>https://www.notion.so/81-7eb7a2aaf1bb44218aa4518ecfff625e</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
+          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-ac5a0e65c26d4fe6a273a921c749d513</t>
+          <t>https://www.notion.so/82-2d371737ff994b659a22cbd894b2ac1f</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
+          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-c3c0c752885b43299404a29b0a9efd01</t>
+          <t>https://www.notion.so/83-c5384494b98f4e9fb0163548157c2178</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
+          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-66c02225dbe24eac8bf7ecdbdda09d48</t>
+          <t>https://www.notion.so/84-12c869d92f554bff84092cfc8fc5d429</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
+          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-94a638d5726d474097978e4f3775a742</t>
+          <t>https://www.notion.so/85-ac5a0e65c26d4fe6a273a921c749d513</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
+          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-916f4c616a8f4943b6c01a7b46ee4cde</t>
+          <t>https://www.notion.so/86-c3c0c752885b43299404a29b0a9efd01</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
+          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-dc9361915fd942da8682caa4e1831593</t>
+          <t>https://www.notion.so/87-66c02225dbe24eac8bf7ecdbdda09d48</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
+          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-98971b82bc7e406cb5a832f078924e5b</t>
+          <t>https://www.notion.so/88-94a638d5726d474097978e4f3775a742</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
+          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-1dae0078b2a74998aee41469b4c89311</t>
+          <t>https://www.notion.so/89-916f4c616a8f4943b6c01a7b46ee4cde</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
+          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-c22f73f94cfe41f0b1e8d20983b5801c</t>
+          <t>https://www.notion.so/90-dc9361915fd942da8682caa4e1831593</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
+          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-e1eea6d7d5a740aeb005ace756e63003</t>
+          <t>https://www.notion.so/91-98971b82bc7e406cb5a832f078924e5b</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
+          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-b12a2dc177434fe18a66784604ceff83</t>
+          <t>https://www.notion.so/92-1dae0078b2a74998aee41469b4c89311</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
+          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-a896264dd720447c9605ce9aed400e41</t>
+          <t>https://www.notion.so/93-c22f73f94cfe41f0b1e8d20983b5801c</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
+          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-cbb649906e5347669c60ebbb82343224</t>
+          <t>https://www.notion.so/94-e1eea6d7d5a740aeb005ace756e63003</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
+          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-4ec5bc4bbd024d8da96712b00846611f</t>
+          <t>https://www.notion.so/95-b12a2dc177434fe18a66784604ceff83</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
+          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-1ca342857b7b45b38d630db08e839147</t>
+          <t>https://www.notion.so/96-a896264dd720447c9605ce9aed400e41</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
+          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-726c6db9133149a4ac95b8bb50a908cf</t>
+          <t>https://www.notion.so/97-cbb649906e5347669c60ebbb82343224</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
+          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-995f8767dacb4c2db37f4a15b392ea08</t>
+          <t>https://www.notion.so/98-4ec5bc4bbd024d8da96712b00846611f</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
+          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-54c06f8685fe495c8eedc14761bc69d2</t>
+          <t>https://www.notion.so/99-1ca342857b7b45b38d630db08e839147</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
+          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-4cf0cc74afa54872bc1ea4b64ec04118</t>
+          <t>https://www.notion.so/100-726c6db9133149a4ac95b8bb50a908cf</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
+          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-2b9d2b032235456cb0737d2b8cefe8a1</t>
+          <t>https://www.notion.so/101-995f8767dacb4c2db37f4a15b392ea08</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
+          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-a0afcb05dbae4f4396117c939a084d20</t>
+          <t>https://www.notion.so/102-54c06f8685fe495c8eedc14761bc69d2</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
+          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-74b364b115ec4b14aff965d64ce12e12</t>
+          <t>https://www.notion.so/103-4cf0cc74afa54872bc1ea4b64ec04118</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
+          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-3c225feaa1de4673aed9f2ec10bf6e31</t>
+          <t>https://www.notion.so/104-2b9d2b032235456cb0737d2b8cefe8a1</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
+          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-88832275d56a4d939d6b2189a13085b3</t>
+          <t>https://www.notion.so/105-a0afcb05dbae4f4396117c939a084d20</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
+          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-9d451a846b7c4019a31c9fed17f25dec</t>
+          <t>https://www.notion.so/106-74b364b115ec4b14aff965d64ce12e12</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
+          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-0b2377560adf45669ceb29df4911a1fc</t>
+          <t>https://www.notion.so/107-3c225feaa1de4673aed9f2ec10bf6e31</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
+          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-aef2fde429f541a1a3934191f3aab1fb</t>
+          <t>https://www.notion.so/108-88832275d56a4d939d6b2189a13085b3</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
+          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-a5805d2a974e494d8547db6202ff0e8b</t>
+          <t>https://www.notion.so/109-9d451a846b7c4019a31c9fed17f25dec</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
+          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-907bfe00b5154d8d896f259cdf7d2552</t>
+          <t>https://www.notion.so/110-0b2377560adf45669ceb29df4911a1fc</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
+          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-251b433b4baa41e09ec5737b077a8955</t>
+          <t>https://www.notion.so/111-aef2fde429f541a1a3934191f3aab1fb</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
+          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-5b406471905f4cb1ab927b89d36b8114</t>
+          <t>https://www.notion.so/112-a5805d2a974e494d8547db6202ff0e8b</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>aef49589-f864-4815-b926-fad034a6d746</t>
+          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-aef49589f8644815b926fad034a6d746</t>
+          <t>https://www.notion.so/113-907bfe00b5154d8d896f259cdf7d2552</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
+          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-dfcce9f3165b4c279a8034317c295020</t>
+          <t>https://www.notion.so/114-251b433b4baa41e09ec5737b077a8955</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
+          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-5b513ab5ea1245a2b96b4bf9df9995ed</t>
+          <t>https://www.notion.so/115-5b406471905f4cb1ab927b89d36b8114</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
+          <t>aef49589-f864-4815-b926-fad034a6d746</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-1ca4b9be2ea646e8bee9100028cec31e</t>
+          <t>https://www.notion.so/116-aef49589f8644815b926fad034a6d746</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
+          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-a16599b266e445d6ba0c3d49dff6c687</t>
+          <t>https://www.notion.so/117-dfcce9f3165b4c279a8034317c295020</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,17 +23961,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
+          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2024-06-25T08:25:00.000Z</t>
+          <t>2024-06-25T15:44:00.000Z</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-01558575577b4a9b9b04922298f3d78c</t>
+          <t>https://www.notion.so/118-5b513ab5ea1245a2b96b4bf9df9995ed</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -23995,7 +23995,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
@@ -24160,17 +24160,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2024-06-25T08:25:00.000Z</t>
+          <t>2024-06-25T15:44:00.000Z</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-063fd668083549afa93570ff8074aa87</t>
+          <t>https://www.notion.so/119-1ca4b9be2ea646e8bee9100028cec31e</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24194,7 +24194,7 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
@@ -24359,17 +24359,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>49b0c30f-094e-40e6-8e75-7f0c1355479f</t>
+          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2024-06-25T08:25:00.000Z</t>
+          <t>2024-06-25T15:44:00.000Z</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-06T13:12:00.000Z</t>
+          <t>2024-07-08T01:57:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-49b0c30f094e40e68e757f0c1355479f</t>
+          <t>https://www.notion.so/120-a16599b266e445d6ba0c3d49dff6c687</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24393,7 +24393,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
@@ -24547,6 +24547,603 @@
       <c r="AU121" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '120', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '120', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2024-07-08T01:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/121-01558575577b4a9b9b04922298f3d78c</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>b881c341-e6ba-4fa5-acba-1d0d0c17746d</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S122" t="n">
+        <v>4</v>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V122" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="W122" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Y122" t="n">
+        <v>22976000</v>
+      </c>
+      <c r="Z122" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AA122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB122" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="AC122" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AD122" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE122" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AI122" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AJ122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK122" t="n">
+        <v>30024000</v>
+      </c>
+      <c r="AL122" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AM122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN122" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="AO122" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP122" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ122" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS122" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT122" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU122" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '121', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '121', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2024-07-08T01:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="b">
+        <v>0</v>
+      </c>
+      <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/122-063fd668083549afa93570ff8074aa87</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>b881c341-e6ba-4fa5-acba-1d0d0c17746d</t>
+        </is>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S123" t="n">
+        <v>1</v>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V123" t="n">
+        <v>0</v>
+      </c>
+      <c r="W123" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Y123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z123" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AA123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB123" t="n">
+        <v>800000</v>
+      </c>
+      <c r="AC123" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AD123" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE123" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AI123" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL123" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AM123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO123" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP123" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ123" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR123" t="n">
+        <v>800000</v>
+      </c>
+      <c r="AS123" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT123" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU123" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '122', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '122', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>49b0c30f-094e-40e6-8e75-7f0c1355479f</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2024-07-08T01:57:00.000Z</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/123-49b0c30f094e40e68e757f0c1355479f</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>b881c341-e6ba-4fa5-acba-1d0d0c17746d</t>
+        </is>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S124" t="n">
+        <v>1</v>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V124" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="W124" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Y124" t="n">
+        <v>285000</v>
+      </c>
+      <c r="Z124" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AA124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB124" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AC124" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AD124" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE124" t="inlineStr">
+        <is>
+          <t>2024-07-07</t>
+        </is>
+      </c>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AI124" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK124" t="n">
+        <v>7715000</v>
+      </c>
+      <c r="AL124" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AM124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN124" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AO124" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP124" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ124" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR124" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AS124" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT124" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU124" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '123', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '123', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24055,7 +24055,7 @@
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>0</v>
+        <v>12950000</v>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
@@ -24068,7 +24068,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
       </c>
       <c r="AE119" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="AF119" t="inlineStr"/>
@@ -24103,7 +24103,7 @@
         </is>
       </c>
       <c r="AK119" t="n">
-        <v>0</v>
+        <v>12050000</v>
       </c>
       <c r="AL119" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
         </is>
       </c>
       <c r="AN119" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AO119" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24228,7 +24228,7 @@
         </is>
       </c>
       <c r="S120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -24254,7 +24254,7 @@
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>12950000</v>
+        <v>1506000</v>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
@@ -24267,7 +24267,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -24281,7 +24281,7 @@
       </c>
       <c r="AE120" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="AF120" t="inlineStr"/>
@@ -24302,7 +24302,7 @@
         </is>
       </c>
       <c r="AK120" t="n">
-        <v>12050000</v>
+        <v>-1506000</v>
       </c>
       <c r="AL120" t="inlineStr">
         <is>
@@ -24315,7 +24315,7 @@
         </is>
       </c>
       <c r="AN120" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AO120" t="inlineStr">
         <is>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24427,7 +24427,7 @@
         </is>
       </c>
       <c r="S121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T121" t="inlineStr">
         <is>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="W121" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>1506000</v>
+        <v>22976000</v>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
@@ -24466,7 +24466,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>0</v>
+        <v>41000000</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -24480,7 +24480,7 @@
       </c>
       <c r="AE121" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-05</t>
         </is>
       </c>
       <c r="AF121" t="inlineStr"/>
@@ -24501,7 +24501,7 @@
         </is>
       </c>
       <c r="AK121" t="n">
-        <v>-1506000</v>
+        <v>30024000</v>
       </c>
       <c r="AL121" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         </is>
       </c>
       <c r="AN121" t="n">
-        <v>0</v>
+        <v>41000000</v>
       </c>
       <c r="AO121" t="inlineStr">
         <is>
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24626,7 +24626,7 @@
         </is>
       </c>
       <c r="S122" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T122" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         </is>
       </c>
       <c r="V122" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="W122" t="inlineStr">
         <is>
@@ -24652,7 +24652,7 @@
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>22976000</v>
+        <v>0</v>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
@@ -24665,7 +24665,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>41000000</v>
+        <v>800000</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -24679,7 +24679,7 @@
       </c>
       <c r="AE122" t="inlineStr">
         <is>
-          <t>2024-07-05</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="AF122" t="inlineStr"/>
@@ -24700,7 +24700,7 @@
         </is>
       </c>
       <c r="AK122" t="n">
-        <v>30024000</v>
+        <v>800000</v>
       </c>
       <c r="AL122" t="inlineStr">
         <is>
@@ -24713,7 +24713,7 @@
         </is>
       </c>
       <c r="AN122" t="n">
-        <v>41000000</v>
+        <v>800000</v>
       </c>
       <c r="AO122" t="inlineStr">
         <is>
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         </is>
       </c>
       <c r="V123" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="W123" t="inlineStr">
         <is>
@@ -24851,7 +24851,7 @@
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
@@ -24864,7 +24864,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>800000</v>
+        <v>7000000</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="AE123" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-07-07</t>
         </is>
       </c>
       <c r="AF123" t="inlineStr"/>
@@ -24899,7 +24899,7 @@
         </is>
       </c>
       <c r="AK123" t="n">
-        <v>800000</v>
+        <v>7715000</v>
       </c>
       <c r="AL123" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         </is>
       </c>
       <c r="AN123" t="n">
-        <v>800000</v>
+        <v>4000000</v>
       </c>
       <c r="AO123" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         </is>
       </c>
       <c r="AR123" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AS123" t="inlineStr">
         <is>
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -25037,7 +25037,7 @@
         </is>
       </c>
       <c r="V124" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="W124" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>285000</v>
+        <v>500000</v>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>7000000</v>
+        <v>688000</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -25077,7 +25077,7 @@
       </c>
       <c r="AE124" t="inlineStr">
         <is>
-          <t>2024-07-07</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="AF124" t="inlineStr"/>
@@ -25098,7 +25098,7 @@
         </is>
       </c>
       <c r="AK124" t="n">
-        <v>7715000</v>
+        <v>188000</v>
       </c>
       <c r="AL124" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         </is>
       </c>
       <c r="AN124" t="n">
-        <v>4000000</v>
+        <v>688000</v>
       </c>
       <c r="AO124" t="inlineStr">
         <is>
@@ -25129,7 +25129,7 @@
         </is>
       </c>
       <c r="AR124" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AS124" t="inlineStr">
         <is>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25249,7 +25249,7 @@
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -25276,7 +25276,7 @@
       </c>
       <c r="AE125" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="AF125" t="inlineStr"/>
@@ -25297,7 +25297,7 @@
         </is>
       </c>
       <c r="AK125" t="n">
-        <v>188000</v>
+        <v>-300000</v>
       </c>
       <c r="AL125" t="inlineStr">
         <is>
@@ -25310,7 +25310,7 @@
         </is>
       </c>
       <c r="AN125" t="n">
-        <v>688000</v>
+        <v>1000000</v>
       </c>
       <c r="AO125" t="inlineStr">
         <is>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:01:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25435,7 +25435,7 @@
         </is>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="W126" t="inlineStr">
         <is>
@@ -25448,7 +25448,7 @@
         </is>
       </c>
       <c r="Y126" t="n">
-        <v>1300000</v>
+        <v>345000</v>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
       </c>
       <c r="AE126" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="AF126" t="inlineStr"/>
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="AK126" t="n">
-        <v>-300000</v>
+        <v>1855000</v>
       </c>
       <c r="AL126" t="inlineStr">
         <is>
@@ -25509,7 +25509,7 @@
         </is>
       </c>
       <c r="AN126" t="n">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="AO126" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="S127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -25634,7 +25634,7 @@
         </is>
       </c>
       <c r="V127" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="W127" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>345000</v>
+        <v>800000</v>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
       </c>
       <c r="AE127" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="AF127" t="inlineStr"/>
@@ -25695,7 +25695,7 @@
         </is>
       </c>
       <c r="AK127" t="n">
-        <v>1855000</v>
+        <v>2200000</v>
       </c>
       <c r="AL127" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         </is>
       </c>
       <c r="AN127" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="AO127" t="inlineStr">
         <is>
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25820,7 +25820,7 @@
         </is>
       </c>
       <c r="S128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T128" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         </is>
       </c>
       <c r="V128" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="W128" t="inlineStr">
         <is>
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="Y128" t="n">
-        <v>800000</v>
+        <v>7690000</v>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
@@ -25859,7 +25859,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>0</v>
+        <v>43000000</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
       </c>
       <c r="AE128" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="AF128" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         </is>
       </c>
       <c r="AK128" t="n">
-        <v>2200000</v>
+        <v>30310000</v>
       </c>
       <c r="AL128" t="inlineStr">
         <is>
@@ -25907,7 +25907,7 @@
         </is>
       </c>
       <c r="AN128" t="n">
-        <v>0</v>
+        <v>38000000</v>
       </c>
       <c r="AO128" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         </is>
       </c>
       <c r="AR128" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AS128" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -26019,7 +26019,7 @@
         </is>
       </c>
       <c r="S129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T129" t="inlineStr">
         <is>
@@ -26032,7 +26032,7 @@
         </is>
       </c>
       <c r="V129" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="W129" t="inlineStr">
         <is>
@@ -26045,7 +26045,7 @@
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>7690000</v>
+        <v>390000</v>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>43000000</v>
+        <v>1300000</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -26072,7 +26072,7 @@
       </c>
       <c r="AE129" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="AF129" t="inlineStr"/>
@@ -26093,7 +26093,7 @@
         </is>
       </c>
       <c r="AK129" t="n">
-        <v>30310000</v>
+        <v>5910000</v>
       </c>
       <c r="AL129" t="inlineStr">
         <is>
@@ -26106,7 +26106,7 @@
         </is>
       </c>
       <c r="AN129" t="n">
-        <v>38000000</v>
+        <v>1300000</v>
       </c>
       <c r="AO129" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         </is>
       </c>
       <c r="AR129" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AS129" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26231,7 +26231,7 @@
         </is>
       </c>
       <c r="V130" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="W130" t="inlineStr">
         <is>
@@ -26244,7 +26244,7 @@
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>0</v>
+        <v>82640000</v>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -26271,7 +26271,7 @@
       </c>
       <c r="AE130" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="AF130" t="inlineStr"/>
@@ -26292,7 +26292,7 @@
         </is>
       </c>
       <c r="AK130" t="n">
-        <v>6300000</v>
+        <v>-81040000</v>
       </c>
       <c r="AL130" t="inlineStr">
         <is>
@@ -26305,7 +26305,7 @@
         </is>
       </c>
       <c r="AN130" t="n">
-        <v>1300000</v>
+        <v>1600000</v>
       </c>
       <c r="AO130" t="inlineStr">
         <is>
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T16:02:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="S131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>82640000</v>
+        <v>9790000</v>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
@@ -26456,7 +26456,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>1600000</v>
+        <v>23000000</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
       </c>
       <c r="AE131" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="AF131" t="inlineStr"/>
@@ -26491,7 +26491,7 @@
         </is>
       </c>
       <c r="AK131" t="n">
-        <v>-82640000</v>
+        <v>13210000</v>
       </c>
       <c r="AL131" t="inlineStr">
         <is>
@@ -26504,7 +26504,7 @@
         </is>
       </c>
       <c r="AN131" t="n">
-        <v>0</v>
+        <v>23000000</v>
       </c>
       <c r="AO131" t="inlineStr">
         <is>
@@ -26522,7 +26522,7 @@
         </is>
       </c>
       <c r="AR131" t="n">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="AS131" t="inlineStr">
         <is>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2c2ffa37-24de-460f-8876-8653224f2ff0</t>
+          <t>08cef136-e4b6-497d-9fac-d7ababb06d4d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-19T07:43:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-2c2ffa3724de460f88768653224f2ff0</t>
+          <t>https://www.notion.so/1-08cef136e4b6497d9facd7ababb06d4d</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cced709d-cbb3-4950-963d-64748a3f96c9</t>
+          <t>2c2ffa37-24de-460f-8876-8653224f2ff0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-cced709dcbb34950963d64748a3f96c9</t>
+          <t>https://www.notion.so/2-2c2ffa3724de460f88768653224f2ff0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>f1d8ccda-f637-4f2d-915b-92da1400d99d</t>
+          <t>cced709d-cbb3-4950-963d-64748a3f96c9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-f1d8ccdaf6374f2d915b92da1400d99d</t>
+          <t>https://www.notion.so/3-cced709dcbb34950963d64748a3f96c9</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8768deab-b9a3-473d-ba15-f02758483fdb</t>
+          <t>f1d8ccda-f637-4f2d-915b-92da1400d99d</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-13T12:44:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-8768deabb9a3473dba15f02758483fdb</t>
+          <t>https://www.notion.so/4-f1d8ccdaf6374f2d915b92da1400d99d</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>222150b9-53a1-49d6-b41d-de3a0437e170</t>
+          <t>8768deab-b9a3-473d-ba15-f02758483fdb</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-12T11:25:00.000Z</t>
+          <t>2024-07-13T12:44:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-222150b953a149d6b41dde3a0437e170</t>
+          <t>https://www.notion.so/5-8768deabb9a3473dba15f02758483fdb</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2d8adca0-1726-4176-bfc3-e44a4fe97b13</t>
+          <t>222150b9-53a1-49d6-b41d-de3a0437e170</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-11T14:41:00.000Z</t>
+          <t>2024-07-12T11:25:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-2d8adca017264176bfc3e44a4fe97b13</t>
+          <t>https://www.notion.so/6-222150b953a149d6b41dde3a0437e170</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7e8943d7-33eb-44a0-96b4-c7370eb06873</t>
+          <t>2d8adca0-1726-4176-bfc3-e44a4fe97b13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-08T15:14:00.000Z</t>
+          <t>2024-07-11T14:41:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-7e8943d733eb44a096b4c7370eb06873</t>
+          <t>https://www.notion.so/7-2d8adca017264176bfc3e44a4fe97b13</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8ea311fb-b86c-4d56-ad05-7fed94812a32</t>
+          <t>7e8943d7-33eb-44a0-96b4-c7370eb06873</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-07T14:57:00.000Z</t>
+          <t>2024-07-08T15:14:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-8ea311fbb86c4d56ad057fed94812a32</t>
+          <t>https://www.notion.so/8-7e8943d733eb44a096b4c7370eb06873</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1060fd8d-47b8-4f3a-8ec7-b5bfd89ec67e</t>
+          <t>8ea311fb-b86c-4d56-ad05-7fed94812a32</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-06T16:05:00.000Z</t>
+          <t>2024-07-07T14:57:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-1060fd8d47b84f3a8ec7b5bfd89ec67e</t>
+          <t>https://www.notion.so/9-8ea311fbb86c4d56ad057fed94812a32</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3185c0ad-0c6d-45f3-9ab0-17634502cc55</t>
+          <t>1060fd8d-47b8-4f3a-8ec7-b5bfd89ec67e</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-06T15:49:00.000Z</t>
+          <t>2024-07-06T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-3185c0ad0c6d45f39ab017634502cc55</t>
+          <t>https://www.notion.so/10-1060fd8d47b84f3a8ec7b5bfd89ec67e</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
+          <t>3185c0ad-0c6d-45f3-9ab0-17634502cc55</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-03T13:26:00.000Z</t>
+          <t>2024-07-06T15:49:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-d54f1efaa86342d59189765fd4983cec</t>
+          <t>https://www.notion.so/11-3185c0ad0c6d45f39ab017634502cc55</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
+          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-03T13:20:00.000Z</t>
+          <t>2024-07-03T13:26:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-52f1c71cfb9a4a52b420d5ba78d84357</t>
+          <t>https://www.notion.so/12-d54f1efaa86342d59189765fd4983cec</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
+          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-01T04:19:00.000Z</t>
+          <t>2024-07-03T13:20:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-7791c7c10d0e45e88da4065604bcd21f</t>
+          <t>https://www.notion.so/13-52f1c71cfb9a4a52b420d5ba78d84357</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
+          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-06-30T15:24:00.000Z</t>
+          <t>2024-07-01T04:19:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-00222ff8cefb4ae891583d12bac0731a</t>
+          <t>https://www.notion.so/14-7791c7c10d0e45e88da4065604bcd21f</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
+          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-6187aa4668a24a2d80454548c4b66af9</t>
+          <t>https://www.notion.so/15-00222ff8cefb4ae891583d12bac0731a</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
+          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-464a57eaba654c019124e01717e3f099</t>
+          <t>https://www.notion.so/16-6187aa4668a24a2d80454548c4b66af9</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
+          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-94d7f7501494430b8178f828dd9b7995</t>
+          <t>https://www.notion.so/17-464a57eaba654c019124e01717e3f099</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
+          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-594b617c1c124b59a1613b855ace2697</t>
+          <t>https://www.notion.so/18-94d7f7501494430b8178f828dd9b7995</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
+          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-2f77972521844679954fd9057ac30b88</t>
+          <t>https://www.notion.so/19-594b617c1c124b59a1613b855ace2697</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
+          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-30T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-d2550ac2132f49ffae25eaca9136f3e4</t>
+          <t>https://www.notion.so/20-2f77972521844679954fd9057ac30b88</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
+          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-26T01:42:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-004ae2770f964f1cacb013a1cf8d7cc0</t>
+          <t>https://www.notion.so/21-d2550ac2132f49ffae25eaca9136f3e4</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
+          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-26T01:41:00.000Z</t>
+          <t>2024-06-26T01:42:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-3c276d557b72423e8f845129c576bb8c</t>
+          <t>https://www.notion.so/22-004ae2770f964f1cacb013a1cf8d7cc0</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
+          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-6b50a32b5db44167be338a430747a091</t>
+          <t>https://www.notion.so/23-3c276d557b72423e8f845129c576bb8c</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
+          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-39facd95bd4d442690e78a4d9968d5e3</t>
+          <t>https://www.notion.so/24-6b50a32b5db44167be338a430747a091</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
+          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-584ac37286fe4fcb85b97b563f2d0fbd</t>
+          <t>https://www.notion.so/25-39facd95bd4d442690e78a4d9968d5e3</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,17 +5653,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
+          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-06-25T15:46:00.000Z</t>
+          <t>2024-06-26T01:41:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-9e960e7960a746dd926080dea0b94e8e</t>
+          <t>https://www.notion.so/26-584ac37286fe4fcb85b97b563f2d0fbd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
+          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
+          <t>https://www.notion.so/27-9e960e7960a746dd926080dea0b94e8e</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
+          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-f73d7cb725374af897a202fc4ab15d9e</t>
+          <t>https://www.notion.so/28-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
+          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-96b2ae74933b4a59b4318f36dd90de80</t>
+          <t>https://www.notion.so/29-f73d7cb725374af897a202fc4ab15d9e</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
+          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-8ddf806c8a8b4528b2182039b0175052</t>
+          <t>https://www.notion.so/30-96b2ae74933b4a59b4318f36dd90de80</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
+          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-2990b1efc2ec4fc0a44db8bac4db74b9</t>
+          <t>https://www.notion.so/31-8ddf806c8a8b4528b2182039b0175052</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
+          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-7f37cb5c582142eaa19b8910fba84fb5</t>
+          <t>https://www.notion.so/32-2990b1efc2ec4fc0a44db8bac4db74b9</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
+          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-0b7379bcf3524302a3e88df0ea8dc0d5</t>
+          <t>https://www.notion.so/33-7f37cb5c582142eaa19b8910fba84fb5</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
+          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-b379d1e4550e4cb2af0cb6810ff97bb8</t>
+          <t>https://www.notion.so/34-0b7379bcf3524302a3e88df0ea8dc0d5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
+          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-3646bf897b7c46b08c143ac95984359e</t>
+          <t>https://www.notion.so/35-b379d1e4550e4cb2af0cb6810ff97bb8</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
+          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-b10005d8518d4eddbc598449a5129fd8</t>
+          <t>https://www.notion.so/36-3646bf897b7c46b08c143ac95984359e</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
+          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-f06f8dd5e07d4056914b088f2bf058fa</t>
+          <t>https://www.notion.so/37-b10005d8518d4eddbc598449a5129fd8</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
+          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-380732e8c5bd46b8bff19fbd6f6c42f4</t>
+          <t>https://www.notion.so/38-f06f8dd5e07d4056914b088f2bf058fa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
+          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-e33e5d8980004fdf81c118a3d5babcb5</t>
+          <t>https://www.notion.so/39-380732e8c5bd46b8bff19fbd6f6c42f4</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
+          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-a43add4ce37b465ca76a0282423a6997</t>
+          <t>https://www.notion.so/40-e33e5d8980004fdf81c118a3d5babcb5</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
+          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-0f6131e3cc674a488b6dde4ef7d1b40f</t>
+          <t>https://www.notion.so/41-a43add4ce37b465ca76a0282423a6997</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
+          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-80e96903d54f4d06ad2fa980d77dccb2</t>
+          <t>https://www.notion.so/42-0f6131e3cc674a488b6dde4ef7d1b40f</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
+          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-ec05a2eeb7a64a55bb1fa891a55add0a</t>
+          <t>https://www.notion.so/43-80e96903d54f4d06ad2fa980d77dccb2</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
+          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-c3840748002648d185e6db7edb3c0504</t>
+          <t>https://www.notion.so/44-ec05a2eeb7a64a55bb1fa891a55add0a</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
+          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
+          <t>https://www.notion.so/45-c3840748002648d185e6db7edb3c0504</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
+          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-f935ce96d7be4cac881bb804231d5eea</t>
+          <t>https://www.notion.so/46-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>af426fdc-06e6-4499-90da-573a73641241</t>
+          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-af426fdc06e6449990da573a73641241</t>
+          <t>https://www.notion.so/47-f935ce96d7be4cac881bb804231d5eea</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
+          <t>af426fdc-06e6-4499-90da-573a73641241</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-84b1b189fbd54f8fb3f7593faaa1042b</t>
+          <t>https://www.notion.so/48-af426fdc06e6449990da573a73641241</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
+          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-2c707af5923c434498d5e3bb47c7e443</t>
+          <t>https://www.notion.so/49-84b1b189fbd54f8fb3f7593faaa1042b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
+          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-801e99d37aef4e90b8199626450680b6</t>
+          <t>https://www.notion.so/50-2c707af5923c434498d5e3bb47c7e443</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
+          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-589c8f49bcb14fe9928001f50e7f65e9</t>
+          <t>https://www.notion.so/51-801e99d37aef4e90b8199626450680b6</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0952e540-9579-4e94-896c-937858a124d1</t>
+          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-0952e54095794e94896c937858a124d1</t>
+          <t>https://www.notion.so/52-589c8f49bcb14fe9928001f50e7f65e9</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
+          <t>0952e540-9579-4e94-896c-937858a124d1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-f5529a3cc2cd4cc39daffaee511ed521</t>
+          <t>https://www.notion.so/53-0952e54095794e94896c937858a124d1</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
+          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
+          <t>https://www.notion.so/54-f5529a3cc2cd4cc39daffaee511ed521</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
+          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-1aa2fc39ea3541ca8f39b083de502a63</t>
+          <t>https://www.notion.so/55-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
+          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-cb6000f42feb4a9881444628f0f82d9e</t>
+          <t>https://www.notion.so/56-1aa2fc39ea3541ca8f39b083de502a63</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
+          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-e541355e46b04e13add81a769ba877c5</t>
+          <t>https://www.notion.so/57-cb6000f42feb4a9881444628f0f82d9e</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,17 +12021,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
+          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2024-06-25T15:45:00.000Z</t>
+          <t>2024-06-25T15:46:00.000Z</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-c515f008b17f48c5878e502c037a0818</t>
+          <t>https://www.notion.so/58-e541355e46b04e13add81a769ba877c5</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
+          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-434e47e8b704495ba187ae5b8a77bd8d</t>
+          <t>https://www.notion.so/59-c515f008b17f48c5878e502c037a0818</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
+          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-d6e376021487486ebeb86c14b5f3edca</t>
+          <t>https://www.notion.so/60-434e47e8b704495ba187ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
+          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-7e00ea897a0f4e22a8dc2776c56702cd</t>
+          <t>https://www.notion.so/61-d6e376021487486ebeb86c14b5f3edca</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
+          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-7f0916e40d044a1dae32ef60f001f862</t>
+          <t>https://www.notion.so/62-7e00ea897a0f4e22a8dc2776c56702cd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
+          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-168276c3ef554ff99b8eea4af91d3dbe</t>
+          <t>https://www.notion.so/63-7f0916e40d044a1dae32ef60f001f862</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
+          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-d13bcc52f0364a4f82a22a6e310eee1e</t>
+          <t>https://www.notion.so/64-168276c3ef554ff99b8eea4af91d3dbe</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
+          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-109069f60fa04a94a90595a32e8bf30d</t>
+          <t>https://www.notion.so/65-d13bcc52f0364a4f82a22a6e310eee1e</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
+          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-7cafd8bf39124c28aebb2c01fe4a14d9</t>
+          <t>https://www.notion.so/66-109069f60fa04a94a90595a32e8bf30d</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
+          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-c5aa38aab7c84ffa89ee93c581d320cb</t>
+          <t>https://www.notion.so/67-7cafd8bf39124c28aebb2c01fe4a14d9</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
+          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-6daa2647cb00496eb719cd733569f662</t>
+          <t>https://www.notion.so/68-c5aa38aab7c84ffa89ee93c581d320cb</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
+          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-fc89e627ac814d738eb76c98511632f3</t>
+          <t>https://www.notion.so/69-6daa2647cb00496eb719cd733569f662</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
+          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-111ad33740f34b5586b831259b1570fe</t>
+          <t>https://www.notion.so/70-fc89e627ac814d738eb76c98511632f3</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
+          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-5c0f41ae978e4faba3e48af8d19c6f73</t>
+          <t>https://www.notion.so/71-111ad33740f34b5586b831259b1570fe</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
+          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-856a3cd5f46a40189149626d50d539ae</t>
+          <t>https://www.notion.so/72-5c0f41ae978e4faba3e48af8d19c6f73</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
+          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-3ef7f7a771444602b6ffafe3149c76f3</t>
+          <t>https://www.notion.so/73-856a3cd5f46a40189149626d50d539ae</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
+          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-e8285e8ebcad4bf79bda2bc436cc7c77</t>
+          <t>https://www.notion.so/74-3ef7f7a771444602b6ffafe3149c76f3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
+          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-3d9b798de8d747daafb7e456bc579964</t>
+          <t>https://www.notion.so/75-e8285e8ebcad4bf79bda2bc436cc7c77</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>39475552-6400-483e-a749-c503f5bacb66</t>
+          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-394755526400483ea749c503f5bacb66</t>
+          <t>https://www.notion.so/76-3d9b798de8d747daafb7e456bc579964</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
+          <t>39475552-6400-483e-a749-c503f5bacb66</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-4fcf70d6d25a43d6bf818042b1523735</t>
+          <t>https://www.notion.so/77-394755526400483ea749c503f5bacb66</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
+          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-1744c014cf66471c8b3e38faec3a07e9</t>
+          <t>https://www.notion.so/78-4fcf70d6d25a43d6bf818042b1523735</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
+          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-300d58e186d24cf3a1a0bf0d53b82bcf</t>
+          <t>https://www.notion.so/79-1744c014cf66471c8b3e38faec3a07e9</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
+          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-99c24a5a826f4151a69f885ecdd28821</t>
+          <t>https://www.notion.so/80-300d58e186d24cf3a1a0bf0d53b82bcf</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
+          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-9b80c98af74d4a5a85c19876e46b346c</t>
+          <t>https://www.notion.so/81-99c24a5a826f4151a69f885ecdd28821</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,17 +16797,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
+          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-06-25T15:44:00.000Z</t>
+          <t>2024-06-25T15:45:00.000Z</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-68fe2bc221c048cbae811d7f6dcc7932</t>
+          <t>https://www.notion.so/82-9b80c98af74d4a5a85c19876e46b346c</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
+          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-94cda43831924b5fa31cc84e0ff157cd</t>
+          <t>https://www.notion.so/83-68fe2bc221c048cbae811d7f6dcc7932</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
+          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-ca53893dbfb74584851639aef063440b</t>
+          <t>https://www.notion.so/84-94cda43831924b5fa31cc84e0ff157cd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
+          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-3a5429312b6e40c6b1ba6c4531fbffa4</t>
+          <t>https://www.notion.so/85-ca53893dbfb74584851639aef063440b</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
+          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-4d69d396cf6e42efb9724b7ca1bb1cec</t>
+          <t>https://www.notion.so/86-3a5429312b6e40c6b1ba6c4531fbffa4</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
+          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-6b989ee49b144c20a49965208ae18ba5</t>
+          <t>https://www.notion.so/87-4d69d396cf6e42efb9724b7ca1bb1cec</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
+          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-7eb7a2aaf1bb44218aa4518ecfff625e</t>
+          <t>https://www.notion.so/88-6b989ee49b144c20a49965208ae18ba5</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
+          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-2d371737ff994b659a22cbd894b2ac1f</t>
+          <t>https://www.notion.so/89-7eb7a2aaf1bb44218aa4518ecfff625e</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
+          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-c5384494b98f4e9fb0163548157c2178</t>
+          <t>https://www.notion.so/90-2d371737ff994b659a22cbd894b2ac1f</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
+          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-12c869d92f554bff84092cfc8fc5d429</t>
+          <t>https://www.notion.so/91-c5384494b98f4e9fb0163548157c2178</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
+          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-ac5a0e65c26d4fe6a273a921c749d513</t>
+          <t>https://www.notion.so/92-12c869d92f554bff84092cfc8fc5d429</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
+          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-c3c0c752885b43299404a29b0a9efd01</t>
+          <t>https://www.notion.so/93-ac5a0e65c26d4fe6a273a921c749d513</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
+          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-66c02225dbe24eac8bf7ecdbdda09d48</t>
+          <t>https://www.notion.so/94-c3c0c752885b43299404a29b0a9efd01</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
+          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-94a638d5726d474097978e4f3775a742</t>
+          <t>https://www.notion.so/95-66c02225dbe24eac8bf7ecdbdda09d48</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
+          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-916f4c616a8f4943b6c01a7b46ee4cde</t>
+          <t>https://www.notion.so/96-94a638d5726d474097978e4f3775a742</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
+          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-dc9361915fd942da8682caa4e1831593</t>
+          <t>https://www.notion.so/97-916f4c616a8f4943b6c01a7b46ee4cde</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
+          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-98971b82bc7e406cb5a832f078924e5b</t>
+          <t>https://www.notion.so/98-dc9361915fd942da8682caa4e1831593</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
+          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-1dae0078b2a74998aee41469b4c89311</t>
+          <t>https://www.notion.so/99-98971b82bc7e406cb5a832f078924e5b</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
+          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-c22f73f94cfe41f0b1e8d20983b5801c</t>
+          <t>https://www.notion.so/100-1dae0078b2a74998aee41469b4c89311</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
+          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-e1eea6d7d5a740aeb005ace756e63003</t>
+          <t>https://www.notion.so/101-c22f73f94cfe41f0b1e8d20983b5801c</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
+          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-b12a2dc177434fe18a66784604ceff83</t>
+          <t>https://www.notion.so/102-e1eea6d7d5a740aeb005ace756e63003</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
+          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-a896264dd720447c9605ce9aed400e41</t>
+          <t>https://www.notion.so/103-b12a2dc177434fe18a66784604ceff83</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
+          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-cbb649906e5347669c60ebbb82343224</t>
+          <t>https://www.notion.so/104-a896264dd720447c9605ce9aed400e41</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
+          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-4ec5bc4bbd024d8da96712b00846611f</t>
+          <t>https://www.notion.so/105-cbb649906e5347669c60ebbb82343224</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
+          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-1ca342857b7b45b38d630db08e839147</t>
+          <t>https://www.notion.so/106-4ec5bc4bbd024d8da96712b00846611f</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
+          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-726c6db9133149a4ac95b8bb50a908cf</t>
+          <t>https://www.notion.so/107-1ca342857b7b45b38d630db08e839147</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
+          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-995f8767dacb4c2db37f4a15b392ea08</t>
+          <t>https://www.notion.so/108-726c6db9133149a4ac95b8bb50a908cf</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
+          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-54c06f8685fe495c8eedc14761bc69d2</t>
+          <t>https://www.notion.so/109-995f8767dacb4c2db37f4a15b392ea08</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
+          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-4cf0cc74afa54872bc1ea4b64ec04118</t>
+          <t>https://www.notion.so/110-54c06f8685fe495c8eedc14761bc69d2</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
+          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-2b9d2b032235456cb0737d2b8cefe8a1</t>
+          <t>https://www.notion.so/111-4cf0cc74afa54872bc1ea4b64ec04118</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
+          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-a0afcb05dbae4f4396117c939a084d20</t>
+          <t>https://www.notion.so/112-2b9d2b032235456cb0737d2b8cefe8a1</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
+          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-74b364b115ec4b14aff965d64ce12e12</t>
+          <t>https://www.notion.so/113-a0afcb05dbae4f4396117c939a084d20</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
+          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-3c225feaa1de4673aed9f2ec10bf6e31</t>
+          <t>https://www.notion.so/114-74b364b115ec4b14aff965d64ce12e12</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
+          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-88832275d56a4d939d6b2189a13085b3</t>
+          <t>https://www.notion.so/115-3c225feaa1de4673aed9f2ec10bf6e31</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
+          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-9d451a846b7c4019a31c9fed17f25dec</t>
+          <t>https://www.notion.so/116-88832275d56a4d939d6b2189a13085b3</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
+          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-0b2377560adf45669ceb29df4911a1fc</t>
+          <t>https://www.notion.so/117-9d451a846b7c4019a31c9fed17f25dec</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
+          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-aef2fde429f541a1a3934191f3aab1fb</t>
+          <t>https://www.notion.so/118-0b2377560adf45669ceb29df4911a1fc</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
+          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-a5805d2a974e494d8547db6202ff0e8b</t>
+          <t>https://www.notion.so/119-aef2fde429f541a1a3934191f3aab1fb</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
+          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-907bfe00b5154d8d896f259cdf7d2552</t>
+          <t>https://www.notion.so/120-a5805d2a974e494d8547db6202ff0e8b</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
+          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-251b433b4baa41e09ec5737b077a8955</t>
+          <t>https://www.notion.so/121-907bfe00b5154d8d896f259cdf7d2552</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
+          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-5b406471905f4cb1ab927b89d36b8114</t>
+          <t>https://www.notion.so/122-251b433b4baa41e09ec5737b077a8955</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>aef49589-f864-4815-b926-fad034a6d746</t>
+          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-aef49589f8644815b926fad034a6d746</t>
+          <t>https://www.notion.so/123-5b406471905f4cb1ab927b89d36b8114</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
+          <t>aef49589-f864-4815-b926-fad034a6d746</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-dfcce9f3165b4c279a8034317c295020</t>
+          <t>https://www.notion.so/124-aef49589f8644815b926fad034a6d746</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
+          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-18T16:01:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-5b513ab5ea1245a2b96b4bf9df9995ed</t>
+          <t>https://www.notion.so/125-dfcce9f3165b4c279a8034317c295020</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
+          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-18T16:02:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-1ca4b9be2ea646e8bee9100028cec31e</t>
+          <t>https://www.notion.so/126-5b513ab5ea1245a2b96b4bf9df9995ed</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
+          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-18T16:02:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25775,7 +25775,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-a16599b266e445d6ba0c3d49dff6c687</t>
+          <t>https://www.notion.so/127-1ca4b9be2ea646e8bee9100028cec31e</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -25951,17 +25951,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
+          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2024-06-25T08:25:00.000Z</t>
+          <t>2024-06-25T15:44:00.000Z</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-18T16:02:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.notion.so/128-01558575577b4a9b9b04922298f3d78c</t>
+          <t>https://www.notion.so/128-a16599b266e445d6ba0c3d49dff6c687</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -25985,7 +25985,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -26150,7 +26150,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -26160,7 +26160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-18T16:02:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.notion.so/129-063fd668083549afa93570ff8074aa87</t>
+          <t>https://www.notion.so/129-01558575577b4a9b9b04922298f3d78c</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -26349,7 +26349,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>49b0c30f-094e-40e6-8e75-7f0c1355479f</t>
+          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-18T16:02:00.000Z</t>
+          <t>2024-07-19T07:59:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26372,7 +26372,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.notion.so/130-49b0c30f094e40e68e757f0c1355479f</t>
+          <t>https://www.notion.so/130-063fd668083549afa93570ff8074aa87</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -26160,7 +26160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-19T07:59:00.000Z</t>
+          <t>2024-07-19T12:50:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU131"/>
+  <dimension ref="A1:AU132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>08cef136-e4b6-497d-9fac-d7ababb06d4d</t>
+          <t>2d093075-26a2-4524-88cb-f6f046b711ee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-19T07:43:00.000Z</t>
+          <t>2024-07-20T12:34:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-08cef136e4b6497d9facd7ababb06d4d</t>
+          <t>https://www.notion.so/1-2d09307526a2452488cbf6f046b711ee</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2c2ffa37-24de-460f-8876-8653224f2ff0</t>
+          <t>08cef136-e4b6-497d-9fac-d7ababb06d4d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-19T07:43:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-2c2ffa3724de460f88768653224f2ff0</t>
+          <t>https://www.notion.so/2-08cef136e4b6497d9facd7ababb06d4d</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cced709d-cbb3-4950-963d-64748a3f96c9</t>
+          <t>2c2ffa37-24de-460f-8876-8653224f2ff0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-cced709dcbb34950963d64748a3f96c9</t>
+          <t>https://www.notion.so/3-2c2ffa3724de460f88768653224f2ff0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f1d8ccda-f637-4f2d-915b-92da1400d99d</t>
+          <t>cced709d-cbb3-4950-963d-64748a3f96c9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-f1d8ccdaf6374f2d915b92da1400d99d</t>
+          <t>https://www.notion.so/4-cced709dcbb34950963d64748a3f96c9</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8768deab-b9a3-473d-ba15-f02758483fdb</t>
+          <t>f1d8ccda-f637-4f2d-915b-92da1400d99d</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-13T12:44:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-8768deabb9a3473dba15f02758483fdb</t>
+          <t>https://www.notion.so/5-f1d8ccdaf6374f2d915b92da1400d99d</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>222150b9-53a1-49d6-b41d-de3a0437e170</t>
+          <t>8768deab-b9a3-473d-ba15-f02758483fdb</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-12T11:25:00.000Z</t>
+          <t>2024-07-13T12:44:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-222150b953a149d6b41dde3a0437e170</t>
+          <t>https://www.notion.so/6-8768deabb9a3473dba15f02758483fdb</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2d8adca0-1726-4176-bfc3-e44a4fe97b13</t>
+          <t>222150b9-53a1-49d6-b41d-de3a0437e170</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-11T14:41:00.000Z</t>
+          <t>2024-07-12T11:25:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-2d8adca017264176bfc3e44a4fe97b13</t>
+          <t>https://www.notion.so/7-222150b953a149d6b41dde3a0437e170</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7e8943d7-33eb-44a0-96b4-c7370eb06873</t>
+          <t>2d8adca0-1726-4176-bfc3-e44a4fe97b13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-08T15:14:00.000Z</t>
+          <t>2024-07-11T14:41:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-7e8943d733eb44a096b4c7370eb06873</t>
+          <t>https://www.notion.so/8-2d8adca017264176bfc3e44a4fe97b13</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8ea311fb-b86c-4d56-ad05-7fed94812a32</t>
+          <t>7e8943d7-33eb-44a0-96b4-c7370eb06873</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-07T14:57:00.000Z</t>
+          <t>2024-07-08T15:14:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-8ea311fbb86c4d56ad057fed94812a32</t>
+          <t>https://www.notion.so/9-7e8943d733eb44a096b4c7370eb06873</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1060fd8d-47b8-4f3a-8ec7-b5bfd89ec67e</t>
+          <t>8ea311fb-b86c-4d56-ad05-7fed94812a32</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-06T16:05:00.000Z</t>
+          <t>2024-07-07T14:57:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-1060fd8d47b84f3a8ec7b5bfd89ec67e</t>
+          <t>https://www.notion.so/10-8ea311fbb86c4d56ad057fed94812a32</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3185c0ad-0c6d-45f3-9ab0-17634502cc55</t>
+          <t>1060fd8d-47b8-4f3a-8ec7-b5bfd89ec67e</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-06T15:49:00.000Z</t>
+          <t>2024-07-06T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-3185c0ad0c6d45f39ab017634502cc55</t>
+          <t>https://www.notion.so/11-1060fd8d47b84f3a8ec7b5bfd89ec67e</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
+          <t>3185c0ad-0c6d-45f3-9ab0-17634502cc55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-03T13:26:00.000Z</t>
+          <t>2024-07-06T15:49:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-d54f1efaa86342d59189765fd4983cec</t>
+          <t>https://www.notion.so/12-3185c0ad0c6d45f39ab017634502cc55</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
+          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-03T13:20:00.000Z</t>
+          <t>2024-07-03T13:26:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-52f1c71cfb9a4a52b420d5ba78d84357</t>
+          <t>https://www.notion.so/13-d54f1efaa86342d59189765fd4983cec</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
+          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-01T04:19:00.000Z</t>
+          <t>2024-07-03T13:20:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-7791c7c10d0e45e88da4065604bcd21f</t>
+          <t>https://www.notion.so/14-52f1c71cfb9a4a52b420d5ba78d84357</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
+          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-06-30T15:24:00.000Z</t>
+          <t>2024-07-01T04:19:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-00222ff8cefb4ae891583d12bac0731a</t>
+          <t>https://www.notion.so/15-7791c7c10d0e45e88da4065604bcd21f</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
+          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-6187aa4668a24a2d80454548c4b66af9</t>
+          <t>https://www.notion.so/16-00222ff8cefb4ae891583d12bac0731a</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
+          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-464a57eaba654c019124e01717e3f099</t>
+          <t>https://www.notion.so/17-6187aa4668a24a2d80454548c4b66af9</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
+          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-94d7f7501494430b8178f828dd9b7995</t>
+          <t>https://www.notion.so/18-464a57eaba654c019124e01717e3f099</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
+          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-594b617c1c124b59a1613b855ace2697</t>
+          <t>https://www.notion.so/19-94d7f7501494430b8178f828dd9b7995</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
+          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-2f77972521844679954fd9057ac30b88</t>
+          <t>https://www.notion.so/20-594b617c1c124b59a1613b855ace2697</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
+          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-30T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-d2550ac2132f49ffae25eaca9136f3e4</t>
+          <t>https://www.notion.so/21-2f77972521844679954fd9057ac30b88</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
+          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-26T01:42:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-004ae2770f964f1cacb013a1cf8d7cc0</t>
+          <t>https://www.notion.so/22-d2550ac2132f49ffae25eaca9136f3e4</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
+          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-26T01:41:00.000Z</t>
+          <t>2024-06-26T01:42:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-3c276d557b72423e8f845129c576bb8c</t>
+          <t>https://www.notion.so/23-004ae2770f964f1cacb013a1cf8d7cc0</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
+          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-6b50a32b5db44167be338a430747a091</t>
+          <t>https://www.notion.so/24-3c276d557b72423e8f845129c576bb8c</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
+          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-39facd95bd4d442690e78a4d9968d5e3</t>
+          <t>https://www.notion.so/25-6b50a32b5db44167be338a430747a091</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
+          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-584ac37286fe4fcb85b97b563f2d0fbd</t>
+          <t>https://www.notion.so/26-39facd95bd4d442690e78a4d9968d5e3</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
+          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-06-25T15:46:00.000Z</t>
+          <t>2024-06-26T01:41:00.000Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-9e960e7960a746dd926080dea0b94e8e</t>
+          <t>https://www.notion.so/27-584ac37286fe4fcb85b97b563f2d0fbd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
+          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
+          <t>https://www.notion.so/28-9e960e7960a746dd926080dea0b94e8e</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
+          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-f73d7cb725374af897a202fc4ab15d9e</t>
+          <t>https://www.notion.so/29-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
+          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-96b2ae74933b4a59b4318f36dd90de80</t>
+          <t>https://www.notion.so/30-f73d7cb725374af897a202fc4ab15d9e</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
+          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-8ddf806c8a8b4528b2182039b0175052</t>
+          <t>https://www.notion.so/31-96b2ae74933b4a59b4318f36dd90de80</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
+          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-2990b1efc2ec4fc0a44db8bac4db74b9</t>
+          <t>https://www.notion.so/32-8ddf806c8a8b4528b2182039b0175052</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
+          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-7f37cb5c582142eaa19b8910fba84fb5</t>
+          <t>https://www.notion.so/33-2990b1efc2ec4fc0a44db8bac4db74b9</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
+          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-0b7379bcf3524302a3e88df0ea8dc0d5</t>
+          <t>https://www.notion.so/34-7f37cb5c582142eaa19b8910fba84fb5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
+          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-b379d1e4550e4cb2af0cb6810ff97bb8</t>
+          <t>https://www.notion.so/35-0b7379bcf3524302a3e88df0ea8dc0d5</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
+          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-3646bf897b7c46b08c143ac95984359e</t>
+          <t>https://www.notion.so/36-b379d1e4550e4cb2af0cb6810ff97bb8</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
+          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-b10005d8518d4eddbc598449a5129fd8</t>
+          <t>https://www.notion.so/37-3646bf897b7c46b08c143ac95984359e</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
+          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-f06f8dd5e07d4056914b088f2bf058fa</t>
+          <t>https://www.notion.so/38-b10005d8518d4eddbc598449a5129fd8</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
+          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-380732e8c5bd46b8bff19fbd6f6c42f4</t>
+          <t>https://www.notion.so/39-f06f8dd5e07d4056914b088f2bf058fa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
+          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-e33e5d8980004fdf81c118a3d5babcb5</t>
+          <t>https://www.notion.so/40-380732e8c5bd46b8bff19fbd6f6c42f4</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
+          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-a43add4ce37b465ca76a0282423a6997</t>
+          <t>https://www.notion.so/41-e33e5d8980004fdf81c118a3d5babcb5</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
+          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-0f6131e3cc674a488b6dde4ef7d1b40f</t>
+          <t>https://www.notion.so/42-a43add4ce37b465ca76a0282423a6997</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
+          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-80e96903d54f4d06ad2fa980d77dccb2</t>
+          <t>https://www.notion.so/43-0f6131e3cc674a488b6dde4ef7d1b40f</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
+          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-ec05a2eeb7a64a55bb1fa891a55add0a</t>
+          <t>https://www.notion.so/44-80e96903d54f4d06ad2fa980d77dccb2</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
+          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-c3840748002648d185e6db7edb3c0504</t>
+          <t>https://www.notion.so/45-ec05a2eeb7a64a55bb1fa891a55add0a</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
+          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
+          <t>https://www.notion.so/46-c3840748002648d185e6db7edb3c0504</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
+          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-f935ce96d7be4cac881bb804231d5eea</t>
+          <t>https://www.notion.so/47-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>af426fdc-06e6-4499-90da-573a73641241</t>
+          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-af426fdc06e6449990da573a73641241</t>
+          <t>https://www.notion.so/48-f935ce96d7be4cac881bb804231d5eea</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
+          <t>af426fdc-06e6-4499-90da-573a73641241</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-84b1b189fbd54f8fb3f7593faaa1042b</t>
+          <t>https://www.notion.so/49-af426fdc06e6449990da573a73641241</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
+          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-2c707af5923c434498d5e3bb47c7e443</t>
+          <t>https://www.notion.so/50-84b1b189fbd54f8fb3f7593faaa1042b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
+          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-801e99d37aef4e90b8199626450680b6</t>
+          <t>https://www.notion.so/51-2c707af5923c434498d5e3bb47c7e443</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
+          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-589c8f49bcb14fe9928001f50e7f65e9</t>
+          <t>https://www.notion.so/52-801e99d37aef4e90b8199626450680b6</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0952e540-9579-4e94-896c-937858a124d1</t>
+          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-0952e54095794e94896c937858a124d1</t>
+          <t>https://www.notion.so/53-589c8f49bcb14fe9928001f50e7f65e9</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
+          <t>0952e540-9579-4e94-896c-937858a124d1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-f5529a3cc2cd4cc39daffaee511ed521</t>
+          <t>https://www.notion.so/54-0952e54095794e94896c937858a124d1</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
+          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
+          <t>https://www.notion.so/55-f5529a3cc2cd4cc39daffaee511ed521</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
+          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-1aa2fc39ea3541ca8f39b083de502a63</t>
+          <t>https://www.notion.so/56-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
+          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-cb6000f42feb4a9881444628f0f82d9e</t>
+          <t>https://www.notion.so/57-1aa2fc39ea3541ca8f39b083de502a63</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
+          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-e541355e46b04e13add81a769ba877c5</t>
+          <t>https://www.notion.so/58-cb6000f42feb4a9881444628f0f82d9e</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,17 +12220,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
+          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2024-06-25T15:45:00.000Z</t>
+          <t>2024-06-25T15:46:00.000Z</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-c515f008b17f48c5878e502c037a0818</t>
+          <t>https://www.notion.so/59-e541355e46b04e13add81a769ba877c5</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
+          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-434e47e8b704495ba187ae5b8a77bd8d</t>
+          <t>https://www.notion.so/60-c515f008b17f48c5878e502c037a0818</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
+          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-d6e376021487486ebeb86c14b5f3edca</t>
+          <t>https://www.notion.so/61-434e47e8b704495ba187ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
+          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-7e00ea897a0f4e22a8dc2776c56702cd</t>
+          <t>https://www.notion.so/62-d6e376021487486ebeb86c14b5f3edca</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
+          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-7f0916e40d044a1dae32ef60f001f862</t>
+          <t>https://www.notion.so/63-7e00ea897a0f4e22a8dc2776c56702cd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
+          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-168276c3ef554ff99b8eea4af91d3dbe</t>
+          <t>https://www.notion.so/64-7f0916e40d044a1dae32ef60f001f862</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
+          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-d13bcc52f0364a4f82a22a6e310eee1e</t>
+          <t>https://www.notion.so/65-168276c3ef554ff99b8eea4af91d3dbe</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
+          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-109069f60fa04a94a90595a32e8bf30d</t>
+          <t>https://www.notion.so/66-d13bcc52f0364a4f82a22a6e310eee1e</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
+          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-7cafd8bf39124c28aebb2c01fe4a14d9</t>
+          <t>https://www.notion.so/67-109069f60fa04a94a90595a32e8bf30d</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
+          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-c5aa38aab7c84ffa89ee93c581d320cb</t>
+          <t>https://www.notion.so/68-7cafd8bf39124c28aebb2c01fe4a14d9</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
+          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-6daa2647cb00496eb719cd733569f662</t>
+          <t>https://www.notion.so/69-c5aa38aab7c84ffa89ee93c581d320cb</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
+          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-fc89e627ac814d738eb76c98511632f3</t>
+          <t>https://www.notion.so/70-6daa2647cb00496eb719cd733569f662</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
+          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-111ad33740f34b5586b831259b1570fe</t>
+          <t>https://www.notion.so/71-fc89e627ac814d738eb76c98511632f3</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
+          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-5c0f41ae978e4faba3e48af8d19c6f73</t>
+          <t>https://www.notion.so/72-111ad33740f34b5586b831259b1570fe</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
+          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-856a3cd5f46a40189149626d50d539ae</t>
+          <t>https://www.notion.so/73-5c0f41ae978e4faba3e48af8d19c6f73</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
+          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-3ef7f7a771444602b6ffafe3149c76f3</t>
+          <t>https://www.notion.so/74-856a3cd5f46a40189149626d50d539ae</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
+          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-e8285e8ebcad4bf79bda2bc436cc7c77</t>
+          <t>https://www.notion.so/75-3ef7f7a771444602b6ffafe3149c76f3</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
+          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-3d9b798de8d747daafb7e456bc579964</t>
+          <t>https://www.notion.so/76-e8285e8ebcad4bf79bda2bc436cc7c77</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>39475552-6400-483e-a749-c503f5bacb66</t>
+          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-394755526400483ea749c503f5bacb66</t>
+          <t>https://www.notion.so/77-3d9b798de8d747daafb7e456bc579964</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
+          <t>39475552-6400-483e-a749-c503f5bacb66</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-4fcf70d6d25a43d6bf818042b1523735</t>
+          <t>https://www.notion.so/78-394755526400483ea749c503f5bacb66</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
+          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-1744c014cf66471c8b3e38faec3a07e9</t>
+          <t>https://www.notion.so/79-4fcf70d6d25a43d6bf818042b1523735</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
+          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-300d58e186d24cf3a1a0bf0d53b82bcf</t>
+          <t>https://www.notion.so/80-1744c014cf66471c8b3e38faec3a07e9</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
+          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-99c24a5a826f4151a69f885ecdd28821</t>
+          <t>https://www.notion.so/81-300d58e186d24cf3a1a0bf0d53b82bcf</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
+          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-9b80c98af74d4a5a85c19876e46b346c</t>
+          <t>https://www.notion.so/82-99c24a5a826f4151a69f885ecdd28821</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,17 +16996,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
+          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2024-06-25T15:44:00.000Z</t>
+          <t>2024-06-25T15:45:00.000Z</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-68fe2bc221c048cbae811d7f6dcc7932</t>
+          <t>https://www.notion.so/83-9b80c98af74d4a5a85c19876e46b346c</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
+          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-94cda43831924b5fa31cc84e0ff157cd</t>
+          <t>https://www.notion.so/84-68fe2bc221c048cbae811d7f6dcc7932</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
+          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-ca53893dbfb74584851639aef063440b</t>
+          <t>https://www.notion.so/85-94cda43831924b5fa31cc84e0ff157cd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
+          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-3a5429312b6e40c6b1ba6c4531fbffa4</t>
+          <t>https://www.notion.so/86-ca53893dbfb74584851639aef063440b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
+          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-4d69d396cf6e42efb9724b7ca1bb1cec</t>
+          <t>https://www.notion.so/87-3a5429312b6e40c6b1ba6c4531fbffa4</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
+          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-6b989ee49b144c20a49965208ae18ba5</t>
+          <t>https://www.notion.so/88-4d69d396cf6e42efb9724b7ca1bb1cec</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
+          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-7eb7a2aaf1bb44218aa4518ecfff625e</t>
+          <t>https://www.notion.so/89-6b989ee49b144c20a49965208ae18ba5</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
+          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-2d371737ff994b659a22cbd894b2ac1f</t>
+          <t>https://www.notion.so/90-7eb7a2aaf1bb44218aa4518ecfff625e</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
+          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-c5384494b98f4e9fb0163548157c2178</t>
+          <t>https://www.notion.so/91-2d371737ff994b659a22cbd894b2ac1f</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
+          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-12c869d92f554bff84092cfc8fc5d429</t>
+          <t>https://www.notion.so/92-c5384494b98f4e9fb0163548157c2178</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
+          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-ac5a0e65c26d4fe6a273a921c749d513</t>
+          <t>https://www.notion.so/93-12c869d92f554bff84092cfc8fc5d429</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
+          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-c3c0c752885b43299404a29b0a9efd01</t>
+          <t>https://www.notion.so/94-ac5a0e65c26d4fe6a273a921c749d513</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
+          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-66c02225dbe24eac8bf7ecdbdda09d48</t>
+          <t>https://www.notion.so/95-c3c0c752885b43299404a29b0a9efd01</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
+          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-94a638d5726d474097978e4f3775a742</t>
+          <t>https://www.notion.so/96-66c02225dbe24eac8bf7ecdbdda09d48</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
+          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-916f4c616a8f4943b6c01a7b46ee4cde</t>
+          <t>https://www.notion.so/97-94a638d5726d474097978e4f3775a742</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
+          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-dc9361915fd942da8682caa4e1831593</t>
+          <t>https://www.notion.so/98-916f4c616a8f4943b6c01a7b46ee4cde</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
+          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-98971b82bc7e406cb5a832f078924e5b</t>
+          <t>https://www.notion.so/99-dc9361915fd942da8682caa4e1831593</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
+          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-1dae0078b2a74998aee41469b4c89311</t>
+          <t>https://www.notion.so/100-98971b82bc7e406cb5a832f078924e5b</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
+          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-c22f73f94cfe41f0b1e8d20983b5801c</t>
+          <t>https://www.notion.so/101-1dae0078b2a74998aee41469b4c89311</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
+          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-e1eea6d7d5a740aeb005ace756e63003</t>
+          <t>https://www.notion.so/102-c22f73f94cfe41f0b1e8d20983b5801c</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
+          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-b12a2dc177434fe18a66784604ceff83</t>
+          <t>https://www.notion.so/103-e1eea6d7d5a740aeb005ace756e63003</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
+          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-a896264dd720447c9605ce9aed400e41</t>
+          <t>https://www.notion.so/104-b12a2dc177434fe18a66784604ceff83</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
+          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-cbb649906e5347669c60ebbb82343224</t>
+          <t>https://www.notion.so/105-a896264dd720447c9605ce9aed400e41</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
+          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-4ec5bc4bbd024d8da96712b00846611f</t>
+          <t>https://www.notion.so/106-cbb649906e5347669c60ebbb82343224</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
+          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-1ca342857b7b45b38d630db08e839147</t>
+          <t>https://www.notion.so/107-4ec5bc4bbd024d8da96712b00846611f</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
+          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-726c6db9133149a4ac95b8bb50a908cf</t>
+          <t>https://www.notion.so/108-1ca342857b7b45b38d630db08e839147</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
+          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-995f8767dacb4c2db37f4a15b392ea08</t>
+          <t>https://www.notion.so/109-726c6db9133149a4ac95b8bb50a908cf</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
+          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-54c06f8685fe495c8eedc14761bc69d2</t>
+          <t>https://www.notion.so/110-995f8767dacb4c2db37f4a15b392ea08</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
+          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-4cf0cc74afa54872bc1ea4b64ec04118</t>
+          <t>https://www.notion.so/111-54c06f8685fe495c8eedc14761bc69d2</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
+          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-2b9d2b032235456cb0737d2b8cefe8a1</t>
+          <t>https://www.notion.so/112-4cf0cc74afa54872bc1ea4b64ec04118</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
+          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-a0afcb05dbae4f4396117c939a084d20</t>
+          <t>https://www.notion.so/113-2b9d2b032235456cb0737d2b8cefe8a1</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
+          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-74b364b115ec4b14aff965d64ce12e12</t>
+          <t>https://www.notion.so/114-a0afcb05dbae4f4396117c939a084d20</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
+          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-3c225feaa1de4673aed9f2ec10bf6e31</t>
+          <t>https://www.notion.so/115-74b364b115ec4b14aff965d64ce12e12</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
+          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-88832275d56a4d939d6b2189a13085b3</t>
+          <t>https://www.notion.so/116-3c225feaa1de4673aed9f2ec10bf6e31</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
+          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-9d451a846b7c4019a31c9fed17f25dec</t>
+          <t>https://www.notion.so/117-88832275d56a4d939d6b2189a13085b3</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
+          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-0b2377560adf45669ceb29df4911a1fc</t>
+          <t>https://www.notion.so/118-9d451a846b7c4019a31c9fed17f25dec</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
+          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-aef2fde429f541a1a3934191f3aab1fb</t>
+          <t>https://www.notion.so/119-0b2377560adf45669ceb29df4911a1fc</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
+          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-a5805d2a974e494d8547db6202ff0e8b</t>
+          <t>https://www.notion.so/120-aef2fde429f541a1a3934191f3aab1fb</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
+          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-907bfe00b5154d8d896f259cdf7d2552</t>
+          <t>https://www.notion.so/121-a5805d2a974e494d8547db6202ff0e8b</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
+          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-251b433b4baa41e09ec5737b077a8955</t>
+          <t>https://www.notion.so/122-907bfe00b5154d8d896f259cdf7d2552</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
+          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-5b406471905f4cb1ab927b89d36b8114</t>
+          <t>https://www.notion.so/123-251b433b4baa41e09ec5737b077a8955</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>aef49589-f864-4815-b926-fad034a6d746</t>
+          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-aef49589f8644815b926fad034a6d746</t>
+          <t>https://www.notion.so/124-5b406471905f4cb1ab927b89d36b8114</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
+          <t>aef49589-f864-4815-b926-fad034a6d746</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-dfcce9f3165b4c279a8034317c295020</t>
+          <t>https://www.notion.so/125-aef49589f8644815b926fad034a6d746</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
+          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-5b513ab5ea1245a2b96b4bf9df9995ed</t>
+          <t>https://www.notion.so/126-dfcce9f3165b4c279a8034317c295020</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
+          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25775,7 +25775,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-1ca4b9be2ea646e8bee9100028cec31e</t>
+          <t>https://www.notion.so/127-5b513ab5ea1245a2b96b4bf9df9995ed</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
+          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.notion.so/128-a16599b266e445d6ba0c3d49dff6c687</t>
+          <t>https://www.notion.so/128-1ca4b9be2ea646e8bee9100028cec31e</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -26150,17 +26150,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
+          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2024-06-25T08:25:00.000Z</t>
+          <t>2024-06-25T15:44:00.000Z</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.notion.so/129-01558575577b4a9b9b04922298f3d78c</t>
+          <t>https://www.notion.so/129-a16599b266e445d6ba0c3d49dff6c687</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -26184,7 +26184,7 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
@@ -26349,7 +26349,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-19T12:50:00.000Z</t>
+          <t>2024-07-20T13:37:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26372,7 +26372,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.notion.so/130-063fd668083549afa93570ff8074aa87</t>
+          <t>https://www.notion.so/130-01558575577b4a9b9b04922298f3d78c</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -26537,6 +26537,205 @@
       <c r="AU131" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '130', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '130', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2024-07-20T13:37:00.000Z</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="b">
+        <v>0</v>
+      </c>
+      <c r="H132" t="b">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/131-063fd668083549afa93570ff8074aa87</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>b881c341-e6ba-4fa5-acba-1d0d0c17746d</t>
+        </is>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V132" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="W132" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Y132" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="Z132" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AA132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC132" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AD132" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE132" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AI132" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AJ132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK132" t="n">
+        <v>-1550000</v>
+      </c>
+      <c r="AL132" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AM132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP132" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ132" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS132" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT132" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU132" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '131', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '131', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
+++ b/notion_data/LUY_KE_NGAY_SOC_TRANG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU132"/>
+  <dimension ref="A1:AU133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2d093075-26a2-4524-88cb-f6f046b711ee</t>
+          <t>f9556d6f-1025-4bef-b766-50353482f1fd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-20T12:34:00.000Z</t>
+          <t>2024-07-21T13:36:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-2d09307526a2452488cbf6f046b711ee</t>
+          <t>https://www.notion.so/1-f9556d6f10254befb76650353482f1fd</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>08cef136-e4b6-497d-9fac-d7ababb06d4d</t>
+          <t>2d093075-26a2-4524-88cb-f6f046b711ee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-19T07:43:00.000Z</t>
+          <t>2024-07-20T12:34:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-08cef136e4b6497d9facd7ababb06d4d</t>
+          <t>https://www.notion.so/2-2d09307526a2452488cbf6f046b711ee</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2c2ffa37-24de-460f-8876-8653224f2ff0</t>
+          <t>08cef136-e4b6-497d-9fac-d7ababb06d4d</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-19T07:43:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-2c2ffa3724de460f88768653224f2ff0</t>
+          <t>https://www.notion.so/3-08cef136e4b6497d9facd7ababb06d4d</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cced709d-cbb3-4950-963d-64748a3f96c9</t>
+          <t>2c2ffa37-24de-460f-8876-8653224f2ff0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-cced709dcbb34950963d64748a3f96c9</t>
+          <t>https://www.notion.so/4-2c2ffa3724de460f88768653224f2ff0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>f1d8ccda-f637-4f2d-915b-92da1400d99d</t>
+          <t>cced709d-cbb3-4950-963d-64748a3f96c9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-f1d8ccdaf6374f2d915b92da1400d99d</t>
+          <t>https://www.notion.so/5-cced709dcbb34950963d64748a3f96c9</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8768deab-b9a3-473d-ba15-f02758483fdb</t>
+          <t>f1d8ccda-f637-4f2d-915b-92da1400d99d</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-13T12:44:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-8768deabb9a3473dba15f02758483fdb</t>
+          <t>https://www.notion.so/6-f1d8ccdaf6374f2d915b92da1400d99d</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>222150b9-53a1-49d6-b41d-de3a0437e170</t>
+          <t>8768deab-b9a3-473d-ba15-f02758483fdb</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-12T11:25:00.000Z</t>
+          <t>2024-07-13T12:44:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-222150b953a149d6b41dde3a0437e170</t>
+          <t>https://www.notion.so/7-8768deabb9a3473dba15f02758483fdb</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2d8adca0-1726-4176-bfc3-e44a4fe97b13</t>
+          <t>222150b9-53a1-49d6-b41d-de3a0437e170</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-11T14:41:00.000Z</t>
+          <t>2024-07-12T11:25:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-2d8adca017264176bfc3e44a4fe97b13</t>
+          <t>https://www.notion.so/8-222150b953a149d6b41dde3a0437e170</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7e8943d7-33eb-44a0-96b4-c7370eb06873</t>
+          <t>2d8adca0-1726-4176-bfc3-e44a4fe97b13</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-08T15:14:00.000Z</t>
+          <t>2024-07-11T14:41:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-7e8943d733eb44a096b4c7370eb06873</t>
+          <t>https://www.notion.so/9-2d8adca017264176bfc3e44a4fe97b13</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8ea311fb-b86c-4d56-ad05-7fed94812a32</t>
+          <t>7e8943d7-33eb-44a0-96b4-c7370eb06873</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-07T14:57:00.000Z</t>
+          <t>2024-07-08T15:14:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-8ea311fbb86c4d56ad057fed94812a32</t>
+          <t>https://www.notion.so/10-7e8943d733eb44a096b4c7370eb06873</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1060fd8d-47b8-4f3a-8ec7-b5bfd89ec67e</t>
+          <t>8ea311fb-b86c-4d56-ad05-7fed94812a32</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-06T16:05:00.000Z</t>
+          <t>2024-07-07T14:57:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-1060fd8d47b84f3a8ec7b5bfd89ec67e</t>
+          <t>https://www.notion.so/11-8ea311fbb86c4d56ad057fed94812a32</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3185c0ad-0c6d-45f3-9ab0-17634502cc55</t>
+          <t>1060fd8d-47b8-4f3a-8ec7-b5bfd89ec67e</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-06T15:49:00.000Z</t>
+          <t>2024-07-06T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-3185c0ad0c6d45f39ab017634502cc55</t>
+          <t>https://www.notion.so/12-1060fd8d47b84f3a8ec7b5bfd89ec67e</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
+          <t>3185c0ad-0c6d-45f3-9ab0-17634502cc55</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-03T13:26:00.000Z</t>
+          <t>2024-07-06T15:49:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-d54f1efaa86342d59189765fd4983cec</t>
+          <t>https://www.notion.so/13-3185c0ad0c6d45f39ab017634502cc55</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
+          <t>d54f1efa-a863-42d5-9189-765fd4983cec</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-03T13:20:00.000Z</t>
+          <t>2024-07-03T13:26:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-52f1c71cfb9a4a52b420d5ba78d84357</t>
+          <t>https://www.notion.so/14-d54f1efaa86342d59189765fd4983cec</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
+          <t>52f1c71c-fb9a-4a52-b420-d5ba78d84357</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-01T04:19:00.000Z</t>
+          <t>2024-07-03T13:20:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-7791c7c10d0e45e88da4065604bcd21f</t>
+          <t>https://www.notion.so/15-52f1c71cfb9a4a52b420d5ba78d84357</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
+          <t>7791c7c1-0d0e-45e8-8da4-065604bcd21f</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-30T15:24:00.000Z</t>
+          <t>2024-07-01T04:19:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-00222ff8cefb4ae891583d12bac0731a</t>
+          <t>https://www.notion.so/16-7791c7c10d0e45e88da4065604bcd21f</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
+          <t>00222ff8-cefb-4ae8-9158-3d12bac0731a</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-6187aa4668a24a2d80454548c4b66af9</t>
+          <t>https://www.notion.so/17-00222ff8cefb4ae891583d12bac0731a</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
+          <t>6187aa46-68a2-4a2d-8045-4548c4b66af9</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-464a57eaba654c019124e01717e3f099</t>
+          <t>https://www.notion.so/18-6187aa4668a24a2d80454548c4b66af9</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
+          <t>464a57ea-ba65-4c01-9124-e01717e3f099</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-94d7f7501494430b8178f828dd9b7995</t>
+          <t>https://www.notion.so/19-464a57eaba654c019124e01717e3f099</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
+          <t>94d7f750-1494-430b-8178-f828dd9b7995</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-594b617c1c124b59a1613b855ace2697</t>
+          <t>https://www.notion.so/20-94d7f7501494430b8178f828dd9b7995</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
+          <t>594b617c-1c12-4b59-a161-3b855ace2697</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-2f77972521844679954fd9057ac30b88</t>
+          <t>https://www.notion.so/21-594b617c1c124b59a1613b855ace2697</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
+          <t>2f779725-2184-4679-954f-d9057ac30b88</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-30T15:24:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-d2550ac2132f49ffae25eaca9136f3e4</t>
+          <t>https://www.notion.so/22-2f77972521844679954fd9057ac30b88</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
+          <t>d2550ac2-132f-49ff-ae25-eaca9136f3e4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-26T01:42:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-004ae2770f964f1cacb013a1cf8d7cc0</t>
+          <t>https://www.notion.so/23-d2550ac2132f49ffae25eaca9136f3e4</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
+          <t>004ae277-0f96-4f1c-acb0-13a1cf8d7cc0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-26T01:41:00.000Z</t>
+          <t>2024-06-26T01:42:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-3c276d557b72423e8f845129c576bb8c</t>
+          <t>https://www.notion.so/24-004ae2770f964f1cacb013a1cf8d7cc0</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
+          <t>3c276d55-7b72-423e-8f84-5129c576bb8c</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-6b50a32b5db44167be338a430747a091</t>
+          <t>https://www.notion.so/25-3c276d557b72423e8f845129c576bb8c</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
+          <t>6b50a32b-5db4-4167-be33-8a430747a091</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-39facd95bd4d442690e78a4d9968d5e3</t>
+          <t>https://www.notion.so/26-6b50a32b5db44167be338a430747a091</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
+          <t>39facd95-bd4d-4426-90e7-8a4d9968d5e3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-584ac37286fe4fcb85b97b563f2d0fbd</t>
+          <t>https://www.notion.so/27-39facd95bd4d442690e78a4d9968d5e3</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,17 +6051,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
+          <t>584ac372-86fe-4fcb-85b9-7b563f2d0fbd</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-06-25T15:46:00.000Z</t>
+          <t>2024-06-26T01:41:00.000Z</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-9e960e7960a746dd926080dea0b94e8e</t>
+          <t>https://www.notion.so/28-584ac37286fe4fcb85b97b563f2d0fbd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
+          <t>9e960e79-60a7-46dd-9260-80dea0b94e8e</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
+          <t>https://www.notion.so/29-9e960e7960a746dd926080dea0b94e8e</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
+          <t>82ce8aa2-3f83-4a5a-8bb4-8b6e0fa431d4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-f73d7cb725374af897a202fc4ab15d9e</t>
+          <t>https://www.notion.so/30-82ce8aa23f834a5a8bb48b6e0fa431d4</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
+          <t>f73d7cb7-2537-4af8-97a2-02fc4ab15d9e</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-96b2ae74933b4a59b4318f36dd90de80</t>
+          <t>https://www.notion.so/31-f73d7cb725374af897a202fc4ab15d9e</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
+          <t>96b2ae74-933b-4a59-b431-8f36dd90de80</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-8ddf806c8a8b4528b2182039b0175052</t>
+          <t>https://www.notion.so/32-96b2ae74933b4a59b4318f36dd90de80</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
+          <t>8ddf806c-8a8b-4528-b218-2039b0175052</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-2990b1efc2ec4fc0a44db8bac4db74b9</t>
+          <t>https://www.notion.so/33-8ddf806c8a8b4528b2182039b0175052</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
+          <t>2990b1ef-c2ec-4fc0-a44d-b8bac4db74b9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-7f37cb5c582142eaa19b8910fba84fb5</t>
+          <t>https://www.notion.so/34-2990b1efc2ec4fc0a44db8bac4db74b9</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
+          <t>7f37cb5c-5821-42ea-a19b-8910fba84fb5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-0b7379bcf3524302a3e88df0ea8dc0d5</t>
+          <t>https://www.notion.so/35-7f37cb5c582142eaa19b8910fba84fb5</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
+          <t>0b7379bc-f352-4302-a3e8-8df0ea8dc0d5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-b379d1e4550e4cb2af0cb6810ff97bb8</t>
+          <t>https://www.notion.so/36-0b7379bcf3524302a3e88df0ea8dc0d5</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
+          <t>b379d1e4-550e-4cb2-af0c-b6810ff97bb8</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-3646bf897b7c46b08c143ac95984359e</t>
+          <t>https://www.notion.so/37-b379d1e4550e4cb2af0cb6810ff97bb8</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
+          <t>3646bf89-7b7c-46b0-8c14-3ac95984359e</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-b10005d8518d4eddbc598449a5129fd8</t>
+          <t>https://www.notion.so/38-3646bf897b7c46b08c143ac95984359e</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
+          <t>b10005d8-518d-4edd-bc59-8449a5129fd8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-f06f8dd5e07d4056914b088f2bf058fa</t>
+          <t>https://www.notion.so/39-b10005d8518d4eddbc598449a5129fd8</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
+          <t>f06f8dd5-e07d-4056-914b-088f2bf058fa</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-380732e8c5bd46b8bff19fbd6f6c42f4</t>
+          <t>https://www.notion.so/40-f06f8dd5e07d4056914b088f2bf058fa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
+          <t>380732e8-c5bd-46b8-bff1-9fbd6f6c42f4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-e33e5d8980004fdf81c118a3d5babcb5</t>
+          <t>https://www.notion.so/41-380732e8c5bd46b8bff19fbd6f6c42f4</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
+          <t>e33e5d89-8000-4fdf-81c1-18a3d5babcb5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-a43add4ce37b465ca76a0282423a6997</t>
+          <t>https://www.notion.so/42-e33e5d8980004fdf81c118a3d5babcb5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
+          <t>a43add4c-e37b-465c-a76a-0282423a6997</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-0f6131e3cc674a488b6dde4ef7d1b40f</t>
+          <t>https://www.notion.so/43-a43add4ce37b465ca76a0282423a6997</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
+          <t>0f6131e3-cc67-4a48-8b6d-de4ef7d1b40f</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-80e96903d54f4d06ad2fa980d77dccb2</t>
+          <t>https://www.notion.so/44-0f6131e3cc674a488b6dde4ef7d1b40f</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
+          <t>80e96903-d54f-4d06-ad2f-a980d77dccb2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-ec05a2eeb7a64a55bb1fa891a55add0a</t>
+          <t>https://www.notion.so/45-80e96903d54f4d06ad2fa980d77dccb2</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
+          <t>ec05a2ee-b7a6-4a55-bb1f-a891a55add0a</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-c3840748002648d185e6db7edb3c0504</t>
+          <t>https://www.notion.so/46-ec05a2eeb7a64a55bb1fa891a55add0a</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
+          <t>c3840748-0026-48d1-85e6-db7edb3c0504</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
+          <t>https://www.notion.so/47-c3840748002648d185e6db7edb3c0504</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
+          <t>e41d1598-1d6c-4a38-a5ed-13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-f935ce96d7be4cac881bb804231d5eea</t>
+          <t>https://www.notion.so/48-e41d15981d6c4a38a5ed13a3bf7d0bc7</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>af426fdc-06e6-4499-90da-573a73641241</t>
+          <t>f935ce96-d7be-4cac-881b-b804231d5eea</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-af426fdc06e6449990da573a73641241</t>
+          <t>https://www.notion.so/49-f935ce96d7be4cac881bb804231d5eea</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
+          <t>af426fdc-06e6-4499-90da-573a73641241</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-84b1b189fbd54f8fb3f7593faaa1042b</t>
+          <t>https://www.notion.so/50-af426fdc06e6449990da573a73641241</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
+          <t>84b1b189-fbd5-4f8f-b3f7-593faaa1042b</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-2c707af5923c434498d5e3bb47c7e443</t>
+          <t>https://www.notion.so/51-84b1b189fbd54f8fb3f7593faaa1042b</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
+          <t>2c707af5-923c-4344-98d5-e3bb47c7e443</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-801e99d37aef4e90b8199626450680b6</t>
+          <t>https://www.notion.so/52-2c707af5923c434498d5e3bb47c7e443</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
+          <t>801e99d3-7aef-4e90-b819-9626450680b6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-589c8f49bcb14fe9928001f50e7f65e9</t>
+          <t>https://www.notion.so/53-801e99d37aef4e90b8199626450680b6</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0952e540-9579-4e94-896c-937858a124d1</t>
+          <t>589c8f49-bcb1-4fe9-9280-01f50e7f65e9</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-0952e54095794e94896c937858a124d1</t>
+          <t>https://www.notion.so/54-589c8f49bcb14fe9928001f50e7f65e9</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
+          <t>0952e540-9579-4e94-896c-937858a124d1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-f5529a3cc2cd4cc39daffaee511ed521</t>
+          <t>https://www.notion.so/55-0952e54095794e94896c937858a124d1</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
+          <t>f5529a3c-c2cd-4cc3-9daf-faee511ed521</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
+          <t>https://www.notion.so/56-f5529a3cc2cd4cc39daffaee511ed521</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
+          <t>f492049b-ec0e-4cc3-ba2a-ff05d9bc1b9b</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-1aa2fc39ea3541ca8f39b083de502a63</t>
+          <t>https://www.notion.so/57-f492049bec0e4cc3ba2aff05d9bc1b9b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
+          <t>1aa2fc39-ea35-41ca-8f39-b083de502a63</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-cb6000f42feb4a9881444628f0f82d9e</t>
+          <t>https://www.notion.so/58-1aa2fc39ea3541ca8f39b083de502a63</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
+          <t>cb6000f4-2feb-4a98-8144-4628f0f82d9e</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-e541355e46b04e13add81a769ba877c5</t>
+          <t>https://www.notion.so/59-cb6000f42feb4a9881444628f0f82d9e</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,17 +12419,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
+          <t>e541355e-46b0-4e13-add8-1a769ba877c5</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2024-06-25T15:45:00.000Z</t>
+          <t>2024-06-25T15:46:00.000Z</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-c515f008b17f48c5878e502c037a0818</t>
+          <t>https://www.notion.so/60-e541355e46b04e13add81a769ba877c5</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
+          <t>c515f008-b17f-48c5-878e-502c037a0818</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-434e47e8b704495ba187ae5b8a77bd8d</t>
+          <t>https://www.notion.so/61-c515f008b17f48c5878e502c037a0818</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
+          <t>434e47e8-b704-495b-a187-ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-d6e376021487486ebeb86c14b5f3edca</t>
+          <t>https://www.notion.so/62-434e47e8b704495ba187ae5b8a77bd8d</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
+          <t>d6e37602-1487-486e-beb8-6c14b5f3edca</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-7e00ea897a0f4e22a8dc2776c56702cd</t>
+          <t>https://www.notion.so/63-d6e376021487486ebeb86c14b5f3edca</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
+          <t>7e00ea89-7a0f-4e22-a8dc-2776c56702cd</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-7f0916e40d044a1dae32ef60f001f862</t>
+          <t>https://www.notion.so/64-7e00ea897a0f4e22a8dc2776c56702cd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
+          <t>7f0916e4-0d04-4a1d-ae32-ef60f001f862</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-168276c3ef554ff99b8eea4af91d3dbe</t>
+          <t>https://www.notion.so/65-7f0916e40d044a1dae32ef60f001f862</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
+          <t>168276c3-ef55-4ff9-9b8e-ea4af91d3dbe</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-d13bcc52f0364a4f82a22a6e310eee1e</t>
+          <t>https://www.notion.so/66-168276c3ef554ff99b8eea4af91d3dbe</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
+          <t>d13bcc52-f036-4a4f-82a2-2a6e310eee1e</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-109069f60fa04a94a90595a32e8bf30d</t>
+          <t>https://www.notion.so/67-d13bcc52f0364a4f82a22a6e310eee1e</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
+          <t>109069f6-0fa0-4a94-a905-95a32e8bf30d</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-7cafd8bf39124c28aebb2c01fe4a14d9</t>
+          <t>https://www.notion.so/68-109069f60fa04a94a90595a32e8bf30d</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
+          <t>7cafd8bf-3912-4c28-aebb-2c01fe4a14d9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-c5aa38aab7c84ffa89ee93c581d320cb</t>
+          <t>https://www.notion.so/69-7cafd8bf39124c28aebb2c01fe4a14d9</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
+          <t>c5aa38aa-b7c8-4ffa-89ee-93c581d320cb</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-6daa2647cb00496eb719cd733569f662</t>
+          <t>https://www.notion.so/70-c5aa38aab7c84ffa89ee93c581d320cb</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
+          <t>6daa2647-cb00-496e-b719-cd733569f662</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-fc89e627ac814d738eb76c98511632f3</t>
+          <t>https://www.notion.so/71-6daa2647cb00496eb719cd733569f662</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
+          <t>fc89e627-ac81-4d73-8eb7-6c98511632f3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-111ad33740f34b5586b831259b1570fe</t>
+          <t>https://www.notion.so/72-fc89e627ac814d738eb76c98511632f3</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
+          <t>111ad337-40f3-4b55-86b8-31259b1570fe</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-5c0f41ae978e4faba3e48af8d19c6f73</t>
+          <t>https://www.notion.so/73-111ad33740f34b5586b831259b1570fe</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
+          <t>5c0f41ae-978e-4fab-a3e4-8af8d19c6f73</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-856a3cd5f46a40189149626d50d539ae</t>
+          <t>https://www.notion.so/74-5c0f41ae978e4faba3e48af8d19c6f73</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
+          <t>856a3cd5-f46a-4018-9149-626d50d539ae</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-3ef7f7a771444602b6ffafe3149c76f3</t>
+          <t>https://www.notion.so/75-856a3cd5f46a40189149626d50d539ae</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
+          <t>3ef7f7a7-7144-4602-b6ff-afe3149c76f3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-e8285e8ebcad4bf79bda2bc436cc7c77</t>
+          <t>https://www.notion.so/76-3ef7f7a771444602b6ffafe3149c76f3</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
+          <t>e8285e8e-bcad-4bf7-9bda-2bc436cc7c77</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-3d9b798de8d747daafb7e456bc579964</t>
+          <t>https://www.notion.so/77-e8285e8ebcad4bf79bda2bc436cc7c77</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>39475552-6400-483e-a749-c503f5bacb66</t>
+          <t>3d9b798d-e8d7-47da-afb7-e456bc579964</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-394755526400483ea749c503f5bacb66</t>
+          <t>https://www.notion.so/78-3d9b798de8d747daafb7e456bc579964</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
+          <t>39475552-6400-483e-a749-c503f5bacb66</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-4fcf70d6d25a43d6bf818042b1523735</t>
+          <t>https://www.notion.so/79-394755526400483ea749c503f5bacb66</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
+          <t>4fcf70d6-d25a-43d6-bf81-8042b1523735</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-1744c014cf66471c8b3e38faec3a07e9</t>
+          <t>https://www.notion.so/80-4fcf70d6d25a43d6bf818042b1523735</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
+          <t>1744c014-cf66-471c-8b3e-38faec3a07e9</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-300d58e186d24cf3a1a0bf0d53b82bcf</t>
+          <t>https://www.notion.so/81-1744c014cf66471c8b3e38faec3a07e9</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
+          <t>300d58e1-86d2-4cf3-a1a0-bf0d53b82bcf</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-99c24a5a826f4151a69f885ecdd28821</t>
+          <t>https://www.notion.so/82-300d58e186d24cf3a1a0bf0d53b82bcf</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
+          <t>99c24a5a-826f-4151-a69f-885ecdd28821</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-9b80c98af74d4a5a85c19876e46b346c</t>
+          <t>https://www.notion.so/83-99c24a5a826f4151a69f885ecdd28821</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,17 +17195,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
+          <t>9b80c98a-f74d-4a5a-85c1-9876e46b346c</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024-06-25T15:44:00.000Z</t>
+          <t>2024-06-25T15:45:00.000Z</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-68fe2bc221c048cbae811d7f6dcc7932</t>
+          <t>https://www.notion.so/84-9b80c98af74d4a5a85c19876e46b346c</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
+          <t>68fe2bc2-21c0-48cb-ae81-1d7f6dcc7932</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-94cda43831924b5fa31cc84e0ff157cd</t>
+          <t>https://www.notion.so/85-68fe2bc221c048cbae811d7f6dcc7932</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
+          <t>94cda438-3192-4b5f-a31c-c84e0ff157cd</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-ca53893dbfb74584851639aef063440b</t>
+          <t>https://www.notion.so/86-94cda43831924b5fa31cc84e0ff157cd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
+          <t>ca53893d-bfb7-4584-8516-39aef063440b</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-3a5429312b6e40c6b1ba6c4531fbffa4</t>
+          <t>https://www.notion.so/87-ca53893dbfb74584851639aef063440b</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
+          <t>3a542931-2b6e-40c6-b1ba-6c4531fbffa4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:46:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-4d69d396cf6e42efb9724b7ca1bb1cec</t>
+          <t>https://www.notion.so/88-3a5429312b6e40c6b1ba6c4531fbffa4</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
+          <t>4d69d396-cf6e-42ef-b972-4b7ca1bb1cec</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-6b989ee49b144c20a49965208ae18ba5</t>
+          <t>https://www.notion.so/89-4d69d396cf6e42efb9724b7ca1bb1cec</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
+          <t>6b989ee4-9b14-4c20-a499-65208ae18ba5</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-7eb7a2aaf1bb44218aa4518ecfff625e</t>
+          <t>https://www.notion.so/90-6b989ee49b144c20a49965208ae18ba5</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
+          <t>7eb7a2aa-f1bb-4421-8aa4-518ecfff625e</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-2d371737ff994b659a22cbd894b2ac1f</t>
+          <t>https://www.notion.so/91-7eb7a2aaf1bb44218aa4518ecfff625e</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
+          <t>2d371737-ff99-4b65-9a22-cbd894b2ac1f</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-c5384494b98f4e9fb0163548157c2178</t>
+          <t>https://www.notion.so/92-2d371737ff994b659a22cbd894b2ac1f</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
+          <t>c5384494-b98f-4e9f-b016-3548157c2178</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-12c869d92f554bff84092cfc8fc5d429</t>
+          <t>https://www.notion.so/93-c5384494b98f4e9fb0163548157c2178</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
+          <t>12c869d9-2f55-4bff-8409-2cfc8fc5d429</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-ac5a0e65c26d4fe6a273a921c749d513</t>
+          <t>https://www.notion.so/94-12c869d92f554bff84092cfc8fc5d429</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
+          <t>ac5a0e65-c26d-4fe6-a273-a921c749d513</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-c3c0c752885b43299404a29b0a9efd01</t>
+          <t>https://www.notion.so/95-ac5a0e65c26d4fe6a273a921c749d513</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
+          <t>c3c0c752-885b-4329-9404-a29b0a9efd01</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-66c02225dbe24eac8bf7ecdbdda09d48</t>
+          <t>https://www.notion.so/96-c3c0c752885b43299404a29b0a9efd01</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
+          <t>66c02225-dbe2-4eac-8bf7-ecdbdda09d48</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-94a638d5726d474097978e4f3775a742</t>
+          <t>https://www.notion.so/97-66c02225dbe24eac8bf7ecdbdda09d48</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
+          <t>94a638d5-726d-4740-9797-8e4f3775a742</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-916f4c616a8f4943b6c01a7b46ee4cde</t>
+          <t>https://www.notion.so/98-94a638d5726d474097978e4f3775a742</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
+          <t>916f4c61-6a8f-4943-b6c0-1a7b46ee4cde</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-dc9361915fd942da8682caa4e1831593</t>
+          <t>https://www.notion.so/99-916f4c616a8f4943b6c01a7b46ee4cde</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
+          <t>dc936191-5fd9-42da-8682-caa4e1831593</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-98971b82bc7e406cb5a832f078924e5b</t>
+          <t>https://www.notion.so/100-dc9361915fd942da8682caa4e1831593</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
+          <t>98971b82-bc7e-406c-b5a8-32f078924e5b</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-1dae0078b2a74998aee41469b4c89311</t>
+          <t>https://www.notion.so/101-98971b82bc7e406cb5a832f078924e5b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
+          <t>1dae0078-b2a7-4998-aee4-1469b4c89311</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-c22f73f94cfe41f0b1e8d20983b5801c</t>
+          <t>https://www.notion.so/102-1dae0078b2a74998aee41469b4c89311</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
+          <t>c22f73f9-4cfe-41f0-b1e8-d20983b5801c</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-e1eea6d7d5a740aeb005ace756e63003</t>
+          <t>https://www.notion.so/103-c22f73f94cfe41f0b1e8d20983b5801c</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
+          <t>e1eea6d7-d5a7-40ae-b005-ace756e63003</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-b12a2dc177434fe18a66784604ceff83</t>
+          <t>https://www.notion.so/104-e1eea6d7d5a740aeb005ace756e63003</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
+          <t>b12a2dc1-7743-4fe1-8a66-784604ceff83</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-a896264dd720447c9605ce9aed400e41</t>
+          <t>https://www.notion.so/105-b12a2dc177434fe18a66784604ceff83</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
+          <t>a896264d-d720-447c-9605-ce9aed400e41</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-cbb649906e5347669c60ebbb82343224</t>
+          <t>https://www.notion.so/106-a896264dd720447c9605ce9aed400e41</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
+          <t>cbb64990-6e53-4766-9c60-ebbb82343224</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-4ec5bc4bbd024d8da96712b00846611f</t>
+          <t>https://www.notion.so/107-cbb649906e5347669c60ebbb82343224</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
+          <t>4ec5bc4b-bd02-4d8d-a967-12b00846611f</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-1ca342857b7b45b38d630db08e839147</t>
+          <t>https://www.notion.so/108-4ec5bc4bbd024d8da96712b00846611f</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
+          <t>1ca34285-7b7b-45b3-8d63-0db08e839147</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-726c6db9133149a4ac95b8bb50a908cf</t>
+          <t>https://www.notion.so/109-1ca342857b7b45b38d630db08e839147</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
+          <t>726c6db9-1331-49a4-ac95-b8bb50a908cf</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-995f8767dacb4c2db37f4a15b392ea08</t>
+          <t>https://www.notion.so/110-726c6db9133149a4ac95b8bb50a908cf</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
+          <t>995f8767-dacb-4c2d-b37f-4a15b392ea08</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-54c06f8685fe495c8eedc14761bc69d2</t>
+          <t>https://www.notion.so/111-995f8767dacb4c2db37f4a15b392ea08</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
+          <t>54c06f86-85fe-495c-8eed-c14761bc69d2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-4cf0cc74afa54872bc1ea4b64ec04118</t>
+          <t>https://www.notion.so/112-54c06f8685fe495c8eedc14761bc69d2</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
+          <t>4cf0cc74-afa5-4872-bc1e-a4b64ec04118</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-2b9d2b032235456cb0737d2b8cefe8a1</t>
+          <t>https://www.notion.so/113-4cf0cc74afa54872bc1ea4b64ec04118</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
+          <t>2b9d2b03-2235-456c-b073-7d2b8cefe8a1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-a0afcb05dbae4f4396117c939a084d20</t>
+          <t>https://www.notion.so/114-2b9d2b032235456cb0737d2b8cefe8a1</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
+          <t>a0afcb05-dbae-4f43-9611-7c939a084d20</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-74b364b115ec4b14aff965d64ce12e12</t>
+          <t>https://www.notion.so/115-a0afcb05dbae4f4396117c939a084d20</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
+          <t>74b364b1-15ec-4b14-aff9-65d64ce12e12</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-3c225feaa1de4673aed9f2ec10bf6e31</t>
+          <t>https://www.notion.so/116-74b364b115ec4b14aff965d64ce12e12</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
+          <t>3c225fea-a1de-4673-aed9-f2ec10bf6e31</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-88832275d56a4d939d6b2189a13085b3</t>
+          <t>https://www.notion.so/117-3c225feaa1de4673aed9f2ec10bf6e31</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
+          <t>88832275-d56a-4d93-9d6b-2189a13085b3</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-9d451a846b7c4019a31c9fed17f25dec</t>
+          <t>https://www.notion.so/118-88832275d56a4d939d6b2189a13085b3</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
+          <t>9d451a84-6b7c-4019-a31c-9fed17f25dec</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-0b2377560adf45669ceb29df4911a1fc</t>
+          <t>https://www.notion.so/119-9d451a846b7c4019a31c9fed17f25dec</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
+          <t>0b237756-0adf-4566-9ceb-29df4911a1fc</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-aef2fde429f541a1a3934191f3aab1fb</t>
+          <t>https://www.notion.so/120-0b2377560adf45669ceb29df4911a1fc</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
+          <t>aef2fde4-29f5-41a1-a393-4191f3aab1fb</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-a5805d2a974e494d8547db6202ff0e8b</t>
+          <t>https://www.notion.so/121-aef2fde429f541a1a3934191f3aab1fb</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
+          <t>a5805d2a-974e-494d-8547-db6202ff0e8b</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-907bfe00b5154d8d896f259cdf7d2552</t>
+          <t>https://www.notion.so/122-a5805d2a974e494d8547db6202ff0e8b</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
+          <t>907bfe00-b515-4d8d-896f-259cdf7d2552</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-251b433b4baa41e09ec5737b077a8955</t>
+          <t>https://www.notion.so/123-907bfe00b5154d8d896f259cdf7d2552</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
+          <t>251b433b-4baa-41e0-9ec5-737b077a8955</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-5b406471905f4cb1ab927b89d36b8114</t>
+          <t>https://www.notion.so/124-251b433b4baa41e09ec5737b077a8955</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>aef49589-f864-4815-b926-fad034a6d746</t>
+          <t>5b406471-905f-4cb1-ab92-7b89d36b8114</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-aef49589f8644815b926fad034a6d746</t>
+          <t>https://www.notion.so/125-5b406471905f4cb1ab927b89d36b8114</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
+          <t>aef49589-f864-4815-b926-fad034a6d746</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-dfcce9f3165b4c279a8034317c295020</t>
+          <t>https://www.notion.so/126-aef49589f8644815b926fad034a6d746</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
+          <t>dfcce9f3-165b-4c27-9a80-34317c295020</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25775,7 +25775,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-5b513ab5ea1245a2b96b4bf9df9995ed</t>
+          <t>https://www.notion.so/127-dfcce9f3165b4c279a8034317c295020</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
+          <t>5b513ab5-ea12-45a2-b96b-4bf9df9995ed</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.notion.so/128-1ca4b9be2ea646e8bee9100028cec31e</t>
+          <t>https://www.notion.so/128-5b513ab5ea1245a2b96b4bf9df9995ed</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -26150,7 +26150,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
+          <t>1ca4b9be-2ea6-46e8-bee9-100028cec31e</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -26160,7 +26160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.notion.so/129-a16599b266e445d6ba0c3d49dff6c687</t>
+          <t>https://www.notion.so/129-1ca4b9be2ea646e8bee9100028cec31e</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -26349,17 +26349,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
+          <t>a16599b2-66e4-45d6-ba0c-3d49dff6c687</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2024-06-25T08:25:00.000Z</t>
+          <t>2024-06-25T15:44:00.000Z</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26372,7 +26372,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.notion.so/130-01558575577b4a9b9b04922298f3d78c</t>
+          <t>https://www.notion.so/130-a16599b266e445d6ba0c3d49dff6c687</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -26383,7 +26383,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -26548,7 +26548,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+          <t>01558575-577b-4a9b-9b04-922298f3d78c</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2024-07-20T13:37:00.000Z</t>
+          <t>2024-07-21T16:42:00.000Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -26571,7 +26571,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.notion.so/131-063fd668083549afa93570ff8074aa87</t>
+          <t>https://www.notion.so/131-01558575577b4a9b9b04922298f3d78c</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -26736,6 +26736,205 @@
       <c r="AU132" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '131', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '131', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>063fd668-0835-49af-a935-70ff8074aa87</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:25:00.000Z</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2024-07-21T16:43:00.000Z</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/132-063fd668083549afa93570ff8074aa87</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>b881c341-e6ba-4fa5-acba-1d0d0c17746d</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S133" t="n">
+        <v>1</v>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V133" t="n">
+        <v>0</v>
+      </c>
+      <c r="W133" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Y133" t="n">
+        <v>335000</v>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AA133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AB133" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AC133" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AD133" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AI133" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AK133" t="n">
+        <v>6665000</v>
+      </c>
+      <c r="AL133" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AM133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AN133" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AO133" t="inlineStr">
+        <is>
+          <t>vSqJ</t>
+        </is>
+      </c>
+      <c r="AP133" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AQ133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS133" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT133" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU133" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '132', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '132', 'href': None}]</t>
         </is>
       </c>
     </row>
